--- a/FantomSuperFanList.xlsx
+++ b/FantomSuperFanList.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="137">
   <si>
     <t>S.No</t>
   </si>
@@ -25,9 +25,30 @@
     <t>Fan Type</t>
   </si>
   <si>
+    <t>Token distribution
+ status
+ (1 mil $FSFAN)</t>
+  </si>
+  <si>
+    <t>Guarenteed/
+In consideration</t>
+  </si>
+  <si>
     <t>Comments</t>
   </si>
   <si>
+    <t>Andre Cronje(@AndreCronjeTech)</t>
+  </si>
+  <si>
+    <t>TBC</t>
+  </si>
+  <si>
+    <t>Defi God</t>
+  </si>
+  <si>
+    <t>Guarenteed</t>
+  </si>
+  <si>
     <t>Fantom Vietnam (Node 13)</t>
   </si>
   <si>
@@ -145,21 +166,33 @@
     <t>0xe5e1df7afa575e2d152d8cd7981be49909c8d4ed</t>
   </si>
   <si>
+    <t>Distributed #1</t>
+  </si>
+  <si>
     <t>@harryyeh</t>
   </si>
   <si>
     <t>SpiritSwap</t>
   </si>
   <si>
-    <t>TBC</t>
-  </si>
-  <si>
     <t>DApp</t>
   </si>
   <si>
     <t>SpookySwap</t>
   </si>
   <si>
+    <t>HyperSwap(@hyper_swap)</t>
+  </si>
+  <si>
+    <t>Ester Finance (@EsterFinance)</t>
+  </si>
+  <si>
+    <t>Waka Finance(@WakaFinance)</t>
+  </si>
+  <si>
+    <t>LiquidDriver(@LiquidDriver)</t>
+  </si>
+  <si>
     <t>Irish fantom society . I.F.S (@KevinOC86496666)</t>
   </si>
   <si>
@@ -172,9 +205,15 @@
     <t>αlex | αlex and Ωmega (@alexandomega)</t>
   </si>
   <si>
+    <t>0x2Ac836f0767df1070B9C4F2D53e53Bd3f91b2203</t>
+  </si>
+  <si>
     <t>Fantom Punks (@FTMPunks)</t>
   </si>
   <si>
+    <t>0x7e97919E53F1396E0F02DA9EC109C3fd76F9ecD3</t>
+  </si>
+  <si>
     <t>Adam (@AdamBoudj)</t>
   </si>
   <si>
@@ -187,6 +226,9 @@
     <t>Wizz the #NFT Pro🅕(@SpiritualCrypt1)</t>
   </si>
   <si>
+    <t>0x42135d8335A08af1bDdE80A02b5aF2166E0E5FcE</t>
+  </si>
+  <si>
     <t>Fantom Hierophant(@FHierophant)</t>
   </si>
   <si>
@@ -202,6 +244,9 @@
     <t>FT Queen Selena(@FantomQueenS)</t>
   </si>
   <si>
+    <t>0x0ED6C61F243D70A07fEE2b791962820Ee732CF63</t>
+  </si>
+  <si>
     <t>cryptorama - FTM and VRA(@Oncryptobreak)</t>
   </si>
   <si>
@@ -226,6 +271,9 @@
     <t>CryptoGod 🅕(@SleeperCrypto)</t>
   </si>
   <si>
+    <t>0xf574B18a7B7434Fd33074eE2067fAf39F12B450A</t>
+  </si>
+  <si>
     <t>Yodo(@JuanMon48443855)</t>
   </si>
   <si>
@@ -241,24 +289,123 @@
     <t>Z Times(@TrippieBirdie)</t>
   </si>
   <si>
+    <t>0xDb655CA728f53A5D9a29E7ab0Eb34009b69d19F2</t>
+  </si>
+  <si>
+    <t>KO(@TinFoilRealist)</t>
+  </si>
+  <si>
+    <t>Florian S.(@s_floriansusu)</t>
+  </si>
+  <si>
+    <t>0x703cE54EC26841Ee568Cfd6cF67a98060D998bca</t>
+  </si>
+  <si>
+    <t>Thomas Anderson(@777crypto777)</t>
+  </si>
+  <si>
+    <t>Srikanth Tirumalasetty(@sreedarlin)</t>
+  </si>
+  <si>
+    <t>Crypto Bull(@_Crypto_Bul)</t>
+  </si>
+  <si>
+    <t>KeshaV@VKersu)</t>
+  </si>
+  <si>
+    <t>Daniele S.(@danielesesta)</t>
+  </si>
+  <si>
+    <t>Chief Rug Puller @PopsicleFinance</t>
+  </si>
+  <si>
+    <t>Joe(@cutch_r)</t>
+  </si>
+  <si>
+    <t>I'M!!Trilok(@TrilokArya6)</t>
+  </si>
+  <si>
+    <t>Roosh(TheRabbit )</t>
+  </si>
+  <si>
+    <t>Twitter/Telegram</t>
+  </si>
+  <si>
+    <t>Axe (leveraged) | $FTM King (@Crypto_A_S)</t>
+  </si>
+  <si>
+    <t>Ashura San(@AshuraSan3)</t>
+  </si>
+  <si>
+    <t>BitFeligan (@febg97)</t>
+  </si>
+  <si>
+    <t>Fantom President(@PresidentFtm)</t>
+  </si>
+  <si>
+    <t>0x93BF27a3512F28a4ce66ebd0bc0fC8DFD0602448</t>
+  </si>
+  <si>
+    <t>OwenP (@OwenP53184290)</t>
+  </si>
+  <si>
+    <t>flx_rthshld (@FIxRthshld)</t>
+  </si>
+  <si>
+    <t>The Fantom Ecologist (@ftm_ecologist)</t>
+  </si>
+  <si>
+    <t>0xE9db81A85fDc1f28239bdcA8D3054ad39F44A8D5</t>
+  </si>
+  <si>
+    <t>Juna (@JunaV)</t>
+  </si>
+  <si>
+    <t>AnthonyT $FTM (@champyon04)</t>
+  </si>
+  <si>
+    <t>0xbae1fa7a4c53f2f45c58b0ae387146d42f866e53</t>
+  </si>
+  <si>
+    <t>Shiba Fantom(@ShibaFantom)</t>
+  </si>
+  <si>
+    <t>0x56F3E748ACF7F2c219D7b8f65be8d5C233fC114A</t>
+  </si>
+  <si>
+    <t>FantomPunks(@FantomPunks)</t>
+  </si>
+  <si>
+    <t>0xb495023D8Eb9526D8EC346703f2CFf12F2A6963d</t>
+  </si>
+  <si>
+    <t>pero31 $FTM (@pero31_FTM)</t>
+  </si>
+  <si>
+    <t>0x58bbD2652b5085D4321bf874F10516fdA2b2fAd6</t>
+  </si>
+  <si>
+    <t>Ceazor (@Ceazor7)</t>
+  </si>
+  <si>
+    <t>Twitter/Youtube</t>
+  </si>
+  <si>
+    <t>Wait list</t>
+  </si>
+  <si>
+    <t>Champygolf(@Gregcrypto)</t>
+  </si>
+  <si>
+    <t>In consideration</t>
+  </si>
+  <si>
     <t>Brad Friesen(@BradDeanFriesen)</t>
   </si>
   <si>
-    <t>KO(@TinFoilRealist)</t>
-  </si>
-  <si>
     <t>Crypto Hodler(@CryptoHodler22)</t>
   </si>
   <si>
-    <t>Florian S.(@s_floriansusu)</t>
-  </si>
-  <si>
-    <t>Thomas Anderson(@777crypto777)</t>
-  </si>
-  <si>
-    <t>Champygolf(@Gregcrypto)</t>
-  </si>
-  <si>
     <t>cRyP70h@kz(@crypt0hax)</t>
   </si>
   <si>
@@ -274,49 +421,44 @@
     <t>BTC’ed (@BTC_Ed89)</t>
   </si>
   <si>
-    <t>Srikanth Tirumalasetty(@sreedarlin)</t>
+    <t>0x5A81b38F189b23fFAd763B90d75723D45d01C2D2</t>
   </si>
   <si>
     <t>Beyaz Yaka(@kriptocuyum)</t>
-  </si>
-  <si>
-    <t>Crypto Bull(@_Crypto_Bul)</t>
-  </si>
-  <si>
-    <t>Vincent Ker𝕊u(@VKersu)</t>
-  </si>
-  <si>
-    <t>Daniele S.(@danielesesta)</t>
-  </si>
-  <si>
-    <t>Chief Rug Puller @PopsicleFinance</t>
-  </si>
-  <si>
-    <t>I'M!!Trilok(@TrilokArya6)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
       <u/>
       <color rgb="FF1155CC"/>
+    </font>
+    <font>
+      <b/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <sz val="11.0"/>
       <color rgb="FF5B7083"/>
       <name val="-apple-system"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF1B95E0"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
@@ -324,9 +466,13 @@
       <color rgb="FF1B95E0"/>
       <name val="-apple-system"/>
     </font>
-    <font/>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF0F1419"/>
+      <name val="-apple-system"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,6 +485,18 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA4C2F4"/>
+        <bgColor rgb="FFA4C2F4"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -346,7 +504,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -356,18 +514,34 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -584,9 +758,12 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="45.43"/>
-    <col customWidth="1" min="3" max="3" width="53.43"/>
-    <col customWidth="1" min="5" max="5" width="31.43"/>
+    <col customWidth="1" min="1" max="1" width="5.43"/>
+    <col customWidth="1" min="2" max="2" width="54.71"/>
+    <col customWidth="1" min="3" max="3" width="51.14"/>
+    <col customWidth="1" min="5" max="5" width="17.57"/>
+    <col customWidth="1" hidden="1" min="6" max="6" width="15.86"/>
+    <col customWidth="1" min="7" max="7" width="31.43"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -605,1090 +782,1557 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>1.0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>2.0</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2">
+      <c r="A4" s="4">
         <v>3.0</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2">
+      <c r="A5" s="4">
         <v>4.0</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
+      <c r="F5" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2">
+      <c r="A6" s="4">
         <v>5.0</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
+      <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2">
+      <c r="A7" s="4">
         <v>6.0</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>7</v>
+      <c r="B7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2">
+      <c r="A8" s="4">
         <v>7.0</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>20</v>
+      <c r="B8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2">
+      <c r="A9" s="4">
         <v>8.0</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>7</v>
+      <c r="B9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2">
+      <c r="A10" s="4">
         <v>9.0</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>7</v>
+      <c r="B10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2">
+      <c r="A11" s="4">
         <v>10.0</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>7</v>
+      <c r="B11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2">
+      <c r="A12" s="4">
         <v>11.0</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>7</v>
+      <c r="B12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2">
+      <c r="A13" s="4">
         <v>12.0</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>7</v>
+      <c r="B13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2">
+      <c r="A14" s="4">
         <v>13.0</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>7</v>
+      <c r="B14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2">
+      <c r="A15" s="4">
         <v>14.0</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>7</v>
+      <c r="B15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2">
+      <c r="A16" s="4">
         <v>15.0</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>7</v>
+      <c r="B16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2">
+      <c r="A17" s="4">
         <v>16.0</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>7</v>
+      <c r="B17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2">
+      <c r="A18" s="4">
         <v>17.0</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>41</v>
+      <c r="B18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2">
+      <c r="A19" s="4">
         <v>18.0</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>44</v>
+      <c r="B19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2">
+      <c r="A20" s="7">
         <v>19.0</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>47</v>
+      <c r="B20" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2">
+      <c r="A21" s="4">
         <v>20.0</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>47</v>
+      <c r="B21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2">
+      <c r="A22" s="4">
         <v>21.0</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>50</v>
+      <c r="B22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2">
+      <c r="A23" s="4">
         <v>22.0</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>50</v>
+      <c r="B23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2">
+      <c r="A24" s="4">
         <v>23.0</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>50</v>
+      <c r="B24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2">
+      <c r="A25" s="4">
         <v>24.0</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="26">
-      <c r="A26" s="2">
+      <c r="A26" s="4">
         <v>25.0</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>50</v>
+      <c r="B26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2">
+      <c r="A27" s="4">
         <v>26.0</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>50</v>
+      <c r="B27" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2">
+      <c r="A28" s="4">
         <v>27.0</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>50</v>
+      <c r="B28" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2">
+      <c r="A29" s="4">
         <v>28.0</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>50</v>
+      <c r="B29" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2">
+      <c r="A30" s="4">
         <v>29.0</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>50</v>
+      <c r="B30" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2">
+      <c r="A31" s="4">
         <v>30.0</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>50</v>
+      <c r="B31" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2">
+      <c r="A32" s="4">
         <v>31.0</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>50</v>
+      <c r="B32" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2">
+      <c r="A33" s="4">
         <v>32.0</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>50</v>
+      <c r="B33" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2">
+      <c r="A34" s="4">
         <v>33.0</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>50</v>
+      <c r="B34" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2">
+      <c r="A35" s="4">
         <v>34.0</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>50</v>
+      <c r="B35" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2">
+      <c r="A36" s="4">
         <v>35.0</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>50</v>
+      <c r="B36" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2">
+      <c r="A37" s="4">
         <v>36.0</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>50</v>
+      <c r="B37" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2">
+      <c r="A38" s="4">
         <v>37.0</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>50</v>
+      <c r="B38" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2">
+      <c r="A39" s="4">
         <v>38.0</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>50</v>
+      <c r="B39" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2">
+      <c r="A40" s="4">
         <v>39.0</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>50</v>
+      <c r="B40" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2">
+      <c r="A41" s="4">
         <v>40.0</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>50</v>
+      <c r="B41" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2">
+      <c r="A42" s="4">
         <v>41.0</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>50</v>
+      <c r="B42" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2">
+      <c r="A43" s="4">
         <v>42.0</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>50</v>
+      <c r="B43" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2">
+      <c r="A44" s="4">
         <v>43.0</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>50</v>
+      <c r="B44" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2">
+      <c r="A45" s="4">
         <v>44.0</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>50</v>
+        <v>82</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2">
+      <c r="A46" s="4">
         <v>45.0</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>50</v>
+      <c r="B46" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2">
+      <c r="A47" s="4">
         <v>46.0</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>50</v>
+      <c r="B47" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2">
+      <c r="A48" s="4">
         <v>47.0</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>50</v>
+      <c r="B48" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2">
+      <c r="A49" s="4">
         <v>48.0</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>50</v>
+      <c r="B49" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2">
+      <c r="A50" s="4">
         <v>49.0</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>50</v>
+        <v>88</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2">
+      <c r="A51" s="4">
         <v>50.0</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>50</v>
+      <c r="B51" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2">
+      <c r="A52" s="4">
         <v>51.0</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>50</v>
+      <c r="B52" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2">
+      <c r="A53" s="4">
         <v>52.0</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>50</v>
+      <c r="B53" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2">
+      <c r="A54" s="4">
         <v>53.0</v>
       </c>
-      <c r="B54" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>50</v>
+      <c r="B54" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2">
+      <c r="A55" s="4">
         <v>54.0</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>50</v>
+      <c r="B55" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2">
+      <c r="A56" s="4">
         <v>55.0</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>50</v>
+      <c r="B56" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2">
+      <c r="A57" s="4">
         <v>56.0</v>
       </c>
-      <c r="B57" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>50</v>
+      <c r="B57" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2">
+      <c r="A58" s="4">
         <v>57.0</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>50</v>
+      <c r="B58" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2">
+      <c r="A59" s="4">
         <v>58.0</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>50</v>
+      <c r="B59" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E59" s="3"/>
+      <c r="F59" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2">
+      <c r="A60" s="4">
         <v>59.0</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>50</v>
+      <c r="B60" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2">
+      <c r="A61" s="4">
         <v>60.0</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>50</v>
+      <c r="B61" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2">
+      <c r="A62" s="4">
         <v>61.0</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>50</v>
+      <c r="B62" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2">
+      <c r="A63" s="3">
+        <v>63.0</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="4">
         <v>62.0</v>
       </c>
-      <c r="B63" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2">
-        <v>63.0</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>50</v>
+      <c r="B64" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2">
+      <c r="A65" s="4">
         <v>64.0</v>
       </c>
+      <c r="B65" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="2">
+      <c r="A66" s="4">
         <v>65.0</v>
       </c>
+      <c r="B66" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="2">
+      <c r="A67" s="4">
         <v>66.0</v>
       </c>
+      <c r="B67" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="68">
-      <c r="A68" s="2">
+      <c r="A68" s="4">
         <v>67.0</v>
       </c>
+      <c r="B68" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="69">
-      <c r="A69" s="2">
+      <c r="A69" s="4">
         <v>68.0</v>
       </c>
+      <c r="B69" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="70">
-      <c r="A70" s="2">
+      <c r="A70" s="4">
         <v>69.0</v>
       </c>
+      <c r="B70" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="71">
-      <c r="A71" s="2">
+      <c r="A71" s="4">
         <v>70.0</v>
       </c>
+      <c r="B71" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="72">
-      <c r="A72" s="2">
+      <c r="A72" s="4">
         <v>71.0</v>
       </c>
+      <c r="B72" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="73">
-      <c r="A73" s="2">
+      <c r="A73" s="4">
         <v>72.0</v>
       </c>
+      <c r="B73" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="74">
-      <c r="A74" s="2">
+      <c r="A74" s="4">
         <v>73.0</v>
       </c>
+      <c r="B74" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" s="2">
+      <c r="A75" s="4">
         <v>74.0</v>
       </c>
+      <c r="B75" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="76">
-      <c r="A76" s="2">
+      <c r="A76" s="4">
         <v>75.0</v>
       </c>
+      <c r="F76" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="77">
-      <c r="A77" s="2">
+      <c r="A77" s="4">
         <v>76.0</v>
       </c>
+      <c r="F77" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="78">
-      <c r="A78" s="2">
+      <c r="A78" s="4">
         <v>77.0</v>
       </c>
+      <c r="F78" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="79">
-      <c r="A79" s="2">
+      <c r="A79" s="4">
         <v>78.0</v>
       </c>
+      <c r="F79" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="80">
-      <c r="A80" s="2">
+      <c r="A80" s="3">
         <v>79.0</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2">
+      <c r="A81" s="3">
         <v>80.0</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2">
+      <c r="A82" s="4">
         <v>81.0</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2">
+      <c r="A83" s="4">
         <v>82.0</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2">
+      <c r="A84" s="4">
         <v>83.0</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2">
+      <c r="A85" s="4">
         <v>84.0</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="2">
+      <c r="A86" s="4">
         <v>85.0</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="2">
+      <c r="A87" s="4">
         <v>86.0</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2">
+      <c r="A88" s="4">
         <v>87.0</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2">
+      <c r="A89" s="4">
         <v>88.0</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2">
+      <c r="A90" s="4">
         <v>89.0</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="2">
+      <c r="A91" s="4">
         <v>90.0</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2">
+      <c r="A92" s="4">
         <v>91.0</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2">
+      <c r="A93" s="4">
         <v>92.0</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2">
+      <c r="A94" s="4">
         <v>93.0</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2">
+      <c r="A95" s="4">
         <v>94.0</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2">
+      <c r="A96" s="4">
         <v>95.0</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2">
+      <c r="A97" s="4">
         <v>96.0</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="2">
+      <c r="A98" s="4">
         <v>97.0</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="2">
+      <c r="A99" s="4">
         <v>98.0</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="2">
+      <c r="A100" s="4">
         <v>99.0</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2">
+      <c r="A101" s="3">
         <v>100.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="11"/>
+      <c r="B102" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
+    </row>
+    <row r="103">
+      <c r="B103" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="B104" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="B105" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="B106" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="B107" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="B108" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="B109" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="B110" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="B111" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="A1"/>
-    <hyperlink r:id="rId2" ref="E19"/>
+    <hyperlink r:id="rId2" ref="G20"/>
   </hyperlinks>
   <drawing r:id="rId3"/>
 </worksheet>

--- a/FantomSuperFanList.xlsx
+++ b/FantomSuperFanList.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="184">
   <si>
     <t>S.No</t>
   </si>
@@ -58,42 +58,75 @@
     <t>Validator</t>
   </si>
   <si>
+    <t>Distributed #5</t>
+  </si>
+  <si>
+    <t>@FantomVietnam</t>
+  </si>
+  <si>
     <t>block42 (Node 14)</t>
   </si>
   <si>
     <t>0xa4ddde0afdaea05a3d5a2ec6b5c7f3fc9945020b</t>
   </si>
   <si>
+    <t>Distributed #6</t>
+  </si>
+  <si>
+    <t>@block42</t>
+  </si>
+  <si>
     <t>Bullet Nodes (Node 16)</t>
   </si>
   <si>
     <t>0x35b06b5f1487bc57b2269c700c8be85676c14cec</t>
   </si>
   <si>
+    <t>Distributed #7</t>
+  </si>
+  <si>
     <t>GoFantom (Node 17)</t>
   </si>
   <si>
     <t>0x93419fcb5d9dc7989439f0512d4f737421ed48d9</t>
   </si>
   <si>
+    <t>Distributed #3</t>
+  </si>
+  <si>
+    <t>@GoFantom</t>
+  </si>
+  <si>
     <t>ablock - Fantom Global (Node 21)</t>
   </si>
   <si>
     <t>0x5ca8651fb31046c12691b6391930d33d18afd41b</t>
   </si>
   <si>
+    <t>Distributed #8</t>
+  </si>
+  <si>
+    <t>@ablock_io</t>
+  </si>
+  <si>
     <t>Lopalcar's Node (Node 24)</t>
   </si>
   <si>
     <t>0x9d83c1ec608cdc91d0662e1611816831ed3cb83c</t>
   </si>
   <si>
+    <t>Distributed #9</t>
+  </si>
+  <si>
     <t>Hyperblocks Pro (Node 28)</t>
   </si>
   <si>
     <t>0x308da42e39552dbfe82d8013b3ff6f88c6864603</t>
   </si>
   <si>
+    <t>Distributed #2</t>
+  </si>
+  <si>
     <t>@stelyb</t>
   </si>
   <si>
@@ -103,60 +136,102 @@
     <t>0xf6cd065b02d7a28c17a73d67c3ef9d209da1746b</t>
   </si>
   <si>
+    <t>Distributed #10</t>
+  </si>
+  <si>
     <t>NikkaFTM (Node 33)</t>
   </si>
   <si>
     <t>0x86d4793896e138ab986a3a748309b9bcae8be759</t>
   </si>
   <si>
+    <t>Distributed #11</t>
+  </si>
+  <si>
     <t>MCLB-fierydev (Node 37)</t>
   </si>
   <si>
     <t>0x63c87103063a146d75788780f2b026a01c03046b</t>
   </si>
   <si>
+    <t>Distributed #4</t>
+  </si>
+  <si>
+    <t>@dev_enjoys</t>
+  </si>
+  <si>
     <t>nodo38 $FTM (Node 38)</t>
   </si>
   <si>
     <t>0xf2c155be5d19d20037b3ea7118100aed4b4a5dc2</t>
   </si>
   <si>
+    <t>Distributed #12</t>
+  </si>
+  <si>
+    <t>@nodo38FTM</t>
+  </si>
+  <si>
     <t>Cryptoast.io - 1 Year Lock (Node 40)</t>
   </si>
   <si>
     <t>0xe5972b6bb547992be0114140f9126acf99c5f550</t>
   </si>
   <si>
+    <t>Distributed #13</t>
+  </si>
+  <si>
     <t>fantomreward (Node 43)</t>
   </si>
   <si>
     <t>0xf5d6752614d8b47bd72d2ae42933cd43fe9fe0f7</t>
   </si>
   <si>
+    <t>Distributed #14</t>
+  </si>
+  <si>
+    <t>@FantomReward</t>
+  </si>
+  <si>
     <t>Laturus Node (Node 44)</t>
   </si>
   <si>
     <t>0x461c8ca657f08d5f39b051b045e8202e60cba4a5</t>
   </si>
   <si>
+    <t>Distributed #15</t>
+  </si>
+  <si>
     <t>FantomIndia - Highest Rewards (Node 48)</t>
   </si>
   <si>
     <t>0x7903d1053ebdbe1f50783752f3b0d834213a799a</t>
   </si>
   <si>
+    <t>Distributed #16</t>
+  </si>
+  <si>
     <t>Stakely (Node 49)</t>
   </si>
   <si>
     <t>0xb9e7f09bf5ecc2bfb1be70f4f1bcc4792711cb9f</t>
   </si>
   <si>
+    <t>Distributed #17</t>
+  </si>
+  <si>
+    <t>@Stakely_io</t>
+  </si>
+  <si>
     <t>Fantom Kings (Node 52)</t>
   </si>
   <si>
     <t>0x603cb7442f37cca9a25e95728be968f7b8439d39</t>
   </si>
   <si>
+    <t>Distributed #18</t>
+  </si>
+  <si>
     <t>@KingsFantom</t>
   </si>
   <si>
@@ -175,9 +250,18 @@
     <t>SpiritSwap</t>
   </si>
   <si>
+    <t>0x89AbCD47dA1aDcC90AA02b775c5D720cB3b88cA5</t>
+  </si>
+  <si>
     <t>DApp</t>
   </si>
   <si>
+    <t>Distributed #21</t>
+  </si>
+  <si>
+    <t>@Spirit_Swap</t>
+  </si>
+  <si>
     <t>SpookySwap</t>
   </si>
   <si>
@@ -202,12 +286,21 @@
     <t>Fantom Community Alerts (@FTMAlerts)</t>
   </si>
   <si>
+    <t>0x071FDC1531F09551c9a48B16b271f2d0509dDCA4</t>
+  </si>
+  <si>
+    <t>Distributed #20</t>
+  </si>
+  <si>
     <t>αlex | αlex and Ωmega (@alexandomega)</t>
   </si>
   <si>
     <t>0x2Ac836f0767df1070B9C4F2D53e53Bd3f91b2203</t>
   </si>
   <si>
+    <t>Distributed #19</t>
+  </si>
+  <si>
     <t>Fantom Punks (@FTMPunks)</t>
   </si>
   <si>
@@ -241,6 +334,9 @@
     <t>Crypto Guh | $FTM King(@stillhereguh)</t>
   </si>
   <si>
+    <t>0xe2B2C06Cf97342ba856b64930A56002b06e76bDf</t>
+  </si>
+  <si>
     <t>FT Queen Selena(@FantomQueenS)</t>
   </si>
   <si>
@@ -334,12 +430,18 @@
     <t>Axe (leveraged) | $FTM King (@Crypto_A_S)</t>
   </si>
   <si>
+    <t>0xfc12eB795190D7F02e9269b84cD69325665c0a58</t>
+  </si>
+  <si>
     <t>Ashura San(@AshuraSan3)</t>
   </si>
   <si>
     <t>BitFeligan (@febg97)</t>
   </si>
   <si>
+    <t>0xE52544954F67689AFE8a86F7F5541c8a814B541A</t>
+  </si>
+  <si>
     <t>Fantom President(@PresidentFtm)</t>
   </si>
   <si>
@@ -349,9 +451,15 @@
     <t>OwenP (@OwenP53184290)</t>
   </si>
   <si>
+    <t>0xB1c2aB40AEeAe75CE81F242fa29492972d2D98BA</t>
+  </si>
+  <si>
     <t>flx_rthshld (@FIxRthshld)</t>
   </si>
   <si>
+    <t>0x0F7594474Db81B82a80DE108044A837eA1E88EE0</t>
+  </si>
+  <si>
     <t>The Fantom Ecologist (@ftm_ecologist)</t>
   </si>
   <si>
@@ -361,10 +469,13 @@
     <t>Juna (@JunaV)</t>
   </si>
   <si>
+    <t>0x97Db0E57b1C315a08cc889Ed405ADB100D7F137d</t>
+  </si>
+  <si>
     <t>AnthonyT $FTM (@champyon04)</t>
   </si>
   <si>
-    <t>0xbae1fa7a4c53f2f45c58b0ae387146d42f866e53</t>
+    <t>0x6f21F52cee49B6aFe440a28b2951d768B194e039</t>
   </si>
   <si>
     <t>Shiba Fantom(@ShibaFantom)</t>
@@ -391,6 +502,33 @@
     <t>Twitter/Youtube</t>
   </si>
   <si>
+    <t>Fantom Raspberry Blower(@fantomvetz)</t>
+  </si>
+  <si>
+    <t>0x4343cbd835836945d5a28f740245301221f4d581</t>
+  </si>
+  <si>
+    <t>Uman(@worldofumans)</t>
+  </si>
+  <si>
+    <t>JohnnyFantom(@JohnnyFantom5)</t>
+  </si>
+  <si>
+    <t>Johnny Bravo(@Jonathan_Kettle)</t>
+  </si>
+  <si>
+    <t>0x4138559605394c40f9c2557189Fe47f4dde80FC5</t>
+  </si>
+  <si>
+    <t>Crypto Arcadian(@phantastry)</t>
+  </si>
+  <si>
+    <t>0xCAb5FDafe144d28Cb59DEc9435cD24e486704e0E</t>
+  </si>
+  <si>
+    <t>DAO MCLB</t>
+  </si>
+  <si>
     <t>Wait list</t>
   </si>
   <si>
@@ -425,13 +563,16 @@
   </si>
   <si>
     <t>Beyaz Yaka(@kriptocuyum)</t>
+  </si>
+  <si>
+    <t>0xA94645d79A5fA83B932f94606D6350115e4C473F</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -444,6 +585,8 @@
     </font>
     <font>
       <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font>
       <color theme="1"/>
@@ -451,9 +594,8 @@
     </font>
     <font/>
     <font>
-      <sz val="11.0"/>
-      <color rgb="FF5B7083"/>
-      <name val="-apple-system"/>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -471,13 +613,27 @@
       <color rgb="FF0F1419"/>
       <name val="-apple-system"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF5B7083"/>
+      <name val="-apple-system"/>
+    </font>
+    <font>
+      <b/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -487,8 +643,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFEBEEF0"/>
+        <bgColor rgb="FFEBEEF0"/>
       </patternFill>
     </fill>
     <fill>
@@ -504,7 +660,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -517,31 +673,40 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -760,7 +925,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="5.43"/>
     <col customWidth="1" min="2" max="2" width="54.71"/>
-    <col customWidth="1" min="3" max="3" width="51.14"/>
+    <col customWidth="1" min="3" max="3" width="51.86"/>
     <col customWidth="1" min="5" max="5" width="17.57"/>
     <col customWidth="1" hidden="1" min="6" max="6" width="15.86"/>
     <col customWidth="1" min="7" max="7" width="31.43"/>
@@ -819,1016 +984,1110 @@
       <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="E3" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="G3" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>3.0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="E4" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F4" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="G4" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>4.0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="E5" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="F5" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="G5" s="5"/>
     </row>
     <row r="6">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>5.0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="E6" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F6" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="G6" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>6.0</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="E7" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="F7" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="G7" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>7.0</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="E8" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="F8" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="G8" s="5"/>
     </row>
     <row r="9">
       <c r="A9" s="4">
         <v>8.0</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="E9" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="F9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>26</v>
+      <c r="G9" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>9.0</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="E10" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="F10" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="G10" s="5"/>
     </row>
     <row r="11">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>10.0</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="E11" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="F11" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="G11" s="5"/>
     </row>
     <row r="12">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>11.0</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="E12" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="F12" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="G12" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>12.0</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="E13" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="F13" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="G13" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>13.0</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="E14" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="F14" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="G14" s="4"/>
     </row>
     <row r="15">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>14.0</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="E15" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="F15" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="G15" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>15.0</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="E16" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="F16" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="G16" s="4"/>
     </row>
     <row r="17">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>16.0</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="E17" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="F17" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="G17" s="4"/>
     </row>
     <row r="18">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>17.0</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="E18" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="F18" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="G18" s="4" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>18.0</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="F19" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="7">
+      <c r="A20" s="4">
         <v>19.0</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="7" t="s">
+      <c r="B20" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>51</v>
+      <c r="E20" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>20.0</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>53</v>
+        <v>79</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="G21" s="4" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>21.0</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F22" s="4" t="s">
+      <c r="B22" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>22.0</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>23.0</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>24.0</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>25.0</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <v>26.0</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="4" t="s">
+      <c r="B27" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <v>27.0</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="5"/>
     </row>
     <row r="29">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <v>28.0</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>63</v>
+        <v>92</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>60</v>
+        <v>88</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="G29" s="5"/>
     </row>
     <row r="30">
-      <c r="A30" s="4">
+      <c r="A30" s="3">
         <v>29.0</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F30" s="4" t="s">
+      <c r="B30" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F30" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="4">
+      <c r="A31" s="3">
         <v>30.0</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F31" s="4" t="s">
+      <c r="B31" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F31" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="4">
+      <c r="A32" s="3">
         <v>31.0</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F32" s="4" t="s">
+      <c r="B32" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F32" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="4">
+      <c r="A33" s="3">
         <v>32.0</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F33" s="4" t="s">
+      <c r="B33" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F33" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="4">
+      <c r="A34" s="3">
         <v>33.0</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>69</v>
+      <c r="B34" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F34" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F34" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="4">
+      <c r="A35" s="3">
         <v>34.0</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F35" s="4" t="s">
+      <c r="B35" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F35" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="4">
+      <c r="A36" s="3">
         <v>35.0</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F36" s="4" t="s">
+      <c r="B36" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F36" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="4">
+      <c r="A37" s="3">
         <v>36.0</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F37" s="4" t="s">
+      <c r="B37" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F37" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="4">
+      <c r="A38" s="3">
         <v>37.0</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F38" s="4" t="s">
+      <c r="B38" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F38" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="4">
+      <c r="A39" s="3">
         <v>38.0</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F39" s="4" t="s">
+      <c r="B39" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F39" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="4">
+      <c r="A40" s="3">
         <v>39.0</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F40" s="4" t="s">
+      <c r="B40" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F40" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="4">
+      <c r="A41" s="3">
         <v>40.0</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F41" s="4" t="s">
+      <c r="B41" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F41" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="4">
+      <c r="A42" s="3">
         <v>41.0</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F42" s="4" t="s">
+      <c r="B42" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F42" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="4">
+      <c r="A43" s="3">
         <v>42.0</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F43" s="4" t="s">
+      <c r="B43" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F43" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="4">
+      <c r="A44" s="3">
         <v>43.0</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F44" s="4" t="s">
+      <c r="B44" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F44" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="4">
+      <c r="A45" s="3">
         <v>44.0</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F45" s="4" t="s">
+      <c r="B45" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="4">
+      <c r="A46" s="3">
         <v>45.0</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F46" s="4" t="s">
+      <c r="B46" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="4">
+      <c r="A47" s="3">
         <v>46.0</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F47" s="4" t="s">
+      <c r="B47" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F47" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="4">
+      <c r="A48" s="3">
         <v>47.0</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F48" s="4" t="s">
+      <c r="B48" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F48" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="4">
+      <c r="A49" s="3">
         <v>48.0</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F49" s="4" t="s">
+      <c r="B49" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F49" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="4">
+      <c r="A50" s="3">
         <v>49.0</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F50" s="4" t="s">
+      <c r="B50" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F50" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="4">
+      <c r="A51" s="3">
         <v>50.0</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F51" s="4" t="s">
+      <c r="B51" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F51" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="4">
+      <c r="A52" s="3">
         <v>51.0</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F52" s="4" t="s">
+      <c r="B52" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F52" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="4">
+      <c r="A53" s="3">
         <v>52.0</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F53" s="4" t="s">
+      <c r="B53" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F53" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="4">
+      <c r="A54" s="3">
         <v>53.0</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>93</v>
+      <c r="B54" s="9" t="s">
+        <v>125</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F54" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F54" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="4">
+      <c r="A55" s="3">
         <v>54.0</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F55" s="4" t="s">
+      <c r="B55" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F55" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="4">
+      <c r="A56" s="3">
         <v>55.0</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F56" s="4" t="s">
+      <c r="B56" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F56" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="4">
+      <c r="A57" s="3">
         <v>56.0</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F57" s="4" t="s">
+      <c r="B57" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F57" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="4">
+      <c r="A58" s="3">
         <v>57.0</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F58" s="4" t="s">
+      <c r="B58" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F58" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="4">
+      <c r="A59" s="3">
         <v>58.0</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>60</v>
+      <c r="B59" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="E59" s="3"/>
-      <c r="F59" s="4" t="s">
+      <c r="F59" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="4">
+      <c r="A60" s="3">
         <v>59.0</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F60" s="4" t="s">
+      <c r="B60" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F60" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="4">
+      <c r="A61" s="3">
         <v>60.0</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F61" s="4" t="s">
+      <c r="B61" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F61" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="4">
+      <c r="A62" s="3">
         <v>61.0</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F62" s="4" t="s">
+      <c r="B62" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F62" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1836,250 +2095,280 @@
       <c r="A63" s="3">
         <v>63.0</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F63" s="4" t="s">
+      <c r="B63" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F63" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="4">
+      <c r="A64" s="3">
         <v>62.0</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F64" s="4" t="s">
+      <c r="B64" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F64" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="4">
+      <c r="A65" s="3">
         <v>64.0</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F65" s="4" t="s">
+      <c r="B65" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F65" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="4">
+      <c r="A66" s="3">
         <v>65.0</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>108</v>
+      <c r="B66" s="9" t="s">
+        <v>142</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F66" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F66" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="4">
+      <c r="A67" s="3">
         <v>66.0</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F67" s="4" t="s">
+      <c r="B67" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F67" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="4">
+      <c r="A68" s="3">
         <v>67.0</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F68" s="4" t="s">
+      <c r="B68" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F68" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="4">
+      <c r="A69" s="3">
         <v>68.0</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>112</v>
+      <c r="B69" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F69" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F69" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="4">
+      <c r="A70" s="3">
         <v>69.0</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F70" s="4" t="s">
+      <c r="B70" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F70" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="4">
+      <c r="A71" s="3">
         <v>70.0</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F71" s="4" t="s">
+      <c r="B71" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F71" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="4">
+      <c r="A72" s="3">
         <v>71.0</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F72" s="4" t="s">
+      <c r="B72" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F72" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="4">
+      <c r="A73" s="3">
         <v>72.0</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F73" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F73" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="4">
+      <c r="A74" s="3">
         <v>73.0</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F74" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F74" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="4">
+      <c r="A75" s="3">
         <v>74.0</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F75" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F75" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="4">
+      <c r="A76" s="3">
         <v>75.0</v>
       </c>
+      <c r="B76" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="F76" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="4">
+      <c r="A77" s="3">
         <v>76.0</v>
       </c>
+      <c r="B77" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="F77" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="4">
+      <c r="A78" s="3">
         <v>77.0</v>
       </c>
+      <c r="B78" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="F78" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="4">
+      <c r="A79" s="3">
         <v>78.0</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>10</v>
@@ -2089,104 +2378,122 @@
       <c r="A80" s="3">
         <v>79.0</v>
       </c>
+      <c r="B80" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="3">
         <v>80.0</v>
       </c>
+      <c r="B81" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="82">
-      <c r="A82" s="4">
+      <c r="A82" s="3">
         <v>81.0</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="4">
+      <c r="A83" s="3">
         <v>82.0</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="4">
+      <c r="A84" s="3">
         <v>83.0</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="4">
+      <c r="A85" s="3">
         <v>84.0</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="4">
+      <c r="A86" s="3">
         <v>85.0</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="4">
+      <c r="A87" s="3">
         <v>86.0</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="4">
+      <c r="A88" s="3">
         <v>87.0</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="4">
+      <c r="A89" s="3">
         <v>88.0</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="4">
+      <c r="A90" s="3">
         <v>89.0</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="4">
+      <c r="A91" s="3">
         <v>90.0</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="4">
+      <c r="A92" s="3">
         <v>91.0</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="4">
+      <c r="A93" s="3">
         <v>92.0</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="4">
+      <c r="A94" s="3">
         <v>93.0</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="4">
+      <c r="A95" s="3">
         <v>94.0</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="4">
+      <c r="A96" s="3">
         <v>95.0</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="4">
+      <c r="A97" s="3">
         <v>96.0</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="4">
+      <c r="A98" s="3">
         <v>97.0</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="4">
+      <c r="A99" s="3">
         <v>98.0</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="4">
+      <c r="A100" s="3">
         <v>99.0</v>
       </c>
     </row>
@@ -2196,144 +2503,145 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="11"/>
-      <c r="B102" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C102" s="12"/>
-      <c r="D102" s="12"/>
+      <c r="A102" s="13"/>
+      <c r="B102" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C102" s="15"/>
+      <c r="D102" s="15"/>
     </row>
     <row r="103">
-      <c r="B103" s="4" t="s">
-        <v>126</v>
+      <c r="B103" s="9" t="s">
+        <v>172</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F103" s="4" t="s">
-        <v>127</v>
+        <v>155</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="104">
-      <c r="B104" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F104" s="4" t="s">
-        <v>127</v>
+      <c r="B104" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F104" s="9" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="105">
-      <c r="B105" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>127</v>
+      <c r="B105" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="106">
-      <c r="B106" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>127</v>
+      <c r="B106" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="107">
-      <c r="B107" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F107" s="4" t="s">
-        <v>127</v>
+      <c r="B107" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F107" s="9" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="108">
-      <c r="B108" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>127</v>
+      <c r="B108" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F108" s="9" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="109">
-      <c r="B109" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F109" s="4" t="s">
-        <v>127</v>
+      <c r="B109" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F109" s="9" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="110">
-      <c r="B110" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F110" s="4" t="s">
-        <v>127</v>
+      <c r="B110" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F110" s="9" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="111">
-      <c r="B111" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F111" s="4" t="s">
-        <v>127</v>
+      <c r="B111" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F111" s="9" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="A1"/>
-    <hyperlink r:id="rId2" ref="G20"/>
+    <hyperlink r:id="rId2" ref="G15"/>
+    <hyperlink r:id="rId3" ref="G20"/>
   </hyperlinks>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/FantomSuperFanList.xlsx
+++ b/FantomSuperFanList.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="206">
   <si>
     <t>S.No</t>
   </si>
@@ -307,6 +307,9 @@
     <t>0x7e97919E53F1396E0F02DA9EC109C3fd76F9ecD3</t>
   </si>
   <si>
+    <t>Distributed #22</t>
+  </si>
+  <si>
     <t>Adam (@AdamBoudj)</t>
   </si>
   <si>
@@ -322,12 +325,21 @@
     <t>0x42135d8335A08af1bDdE80A02b5aF2166E0E5FcE</t>
   </si>
   <si>
+    <t>Distributed #23</t>
+  </si>
+  <si>
     <t>Fantom Hierophant(@FHierophant)</t>
   </si>
   <si>
     <t>$FTM #TheNextBigThing(@FTMTheNextBigT1)</t>
   </si>
   <si>
+    <t>0x4D94844Cbf0f49216383Bb71356Ea3ee7A21E942</t>
+  </si>
+  <si>
+    <t>Distributed #29</t>
+  </si>
+  <si>
     <t>IntroToDefi(@DefiIntro)</t>
   </si>
   <si>
@@ -337,12 +349,18 @@
     <t>0xe2B2C06Cf97342ba856b64930A56002b06e76bDf</t>
   </si>
   <si>
+    <t>Distributed #24</t>
+  </si>
+  <si>
     <t>FT Queen Selena(@FantomQueenS)</t>
   </si>
   <si>
     <t>0x0ED6C61F243D70A07fEE2b791962820Ee732CF63</t>
   </si>
   <si>
+    <t>Distributed #25</t>
+  </si>
+  <si>
     <t>cryptorama - FTM and VRA(@Oncryptobreak)</t>
   </si>
   <si>
@@ -388,6 +406,9 @@
     <t>0xDb655CA728f53A5D9a29E7ab0Eb34009b69d19F2</t>
   </si>
   <si>
+    <t>Distributed #26</t>
+  </si>
+  <si>
     <t>KO(@TinFoilRealist)</t>
   </si>
   <si>
@@ -397,9 +418,18 @@
     <t>0x703cE54EC26841Ee568Cfd6cF67a98060D998bca</t>
   </si>
   <si>
+    <t>Distributed #27</t>
+  </si>
+  <si>
     <t>Thomas Anderson(@777crypto777)</t>
   </si>
   <si>
+    <t>0xe330011fEcCb144C6C7559Db94Bc0ECAd7192a7f</t>
+  </si>
+  <si>
+    <t>Distributed #28</t>
+  </si>
+  <si>
     <t>Srikanth Tirumalasetty(@sreedarlin)</t>
   </si>
   <si>
@@ -433,6 +463,9 @@
     <t>0xfc12eB795190D7F02e9269b84cD69325665c0a58</t>
   </si>
   <si>
+    <t>Distributed #30</t>
+  </si>
+  <si>
     <t>Ashura San(@AshuraSan3)</t>
   </si>
   <si>
@@ -442,60 +475,90 @@
     <t>0xE52544954F67689AFE8a86F7F5541c8a814B541A</t>
   </si>
   <si>
+    <t>Distributed #31</t>
+  </si>
+  <si>
     <t>Fantom President(@PresidentFtm)</t>
   </si>
   <si>
     <t>0x93BF27a3512F28a4ce66ebd0bc0fC8DFD0602448</t>
   </si>
   <si>
+    <t>Distributed #32</t>
+  </si>
+  <si>
     <t>OwenP (@OwenP53184290)</t>
   </si>
   <si>
     <t>0xB1c2aB40AEeAe75CE81F242fa29492972d2D98BA</t>
   </si>
   <si>
+    <t>Distributed #33</t>
+  </si>
+  <si>
     <t>flx_rthshld (@FIxRthshld)</t>
   </si>
   <si>
     <t>0x0F7594474Db81B82a80DE108044A837eA1E88EE0</t>
   </si>
   <si>
+    <t>Distributed #34</t>
+  </si>
+  <si>
     <t>The Fantom Ecologist (@ftm_ecologist)</t>
   </si>
   <si>
     <t>0xE9db81A85fDc1f28239bdcA8D3054ad39F44A8D5</t>
   </si>
   <si>
+    <t>Distributed #35</t>
+  </si>
+  <si>
     <t>Juna (@JunaV)</t>
   </si>
   <si>
     <t>0x97Db0E57b1C315a08cc889Ed405ADB100D7F137d</t>
   </si>
   <si>
+    <t>Distributed #36</t>
+  </si>
+  <si>
     <t>AnthonyT $FTM (@champyon04)</t>
   </si>
   <si>
     <t>0x6f21F52cee49B6aFe440a28b2951d768B194e039</t>
   </si>
   <si>
+    <t>Distributed #37</t>
+  </si>
+  <si>
     <t>Shiba Fantom(@ShibaFantom)</t>
   </si>
   <si>
     <t>0x56F3E748ACF7F2c219D7b8f65be8d5C233fC114A</t>
   </si>
   <si>
+    <t>Distributed #38</t>
+  </si>
+  <si>
     <t>FantomPunks(@FantomPunks)</t>
   </si>
   <si>
     <t>0xb495023D8Eb9526D8EC346703f2CFf12F2A6963d</t>
   </si>
   <si>
+    <t>Distributed #39</t>
+  </si>
+  <si>
     <t>pero31 $FTM (@pero31_FTM)</t>
   </si>
   <si>
     <t>0x58bbD2652b5085D4321bf874F10516fdA2b2fAd6</t>
   </si>
   <si>
+    <t>Distributed #40</t>
+  </si>
+  <si>
     <t>Ceazor (@Ceazor7)</t>
   </si>
   <si>
@@ -508,6 +571,9 @@
     <t>0x4343cbd835836945d5a28f740245301221f4d581</t>
   </si>
   <si>
+    <t>Distributed #41</t>
+  </si>
+  <si>
     <t>Uman(@worldofumans)</t>
   </si>
   <si>
@@ -520,46 +586,46 @@
     <t>0x4138559605394c40f9c2557189Fe47f4dde80FC5</t>
   </si>
   <si>
+    <t>Distributed #42</t>
+  </si>
+  <si>
     <t>Crypto Arcadian(@phantastry)</t>
   </si>
   <si>
     <t>0xCAb5FDafe144d28Cb59DEc9435cD24e486704e0E</t>
   </si>
   <si>
+    <t>Distributed #43</t>
+  </si>
+  <si>
     <t>DAO MCLB</t>
   </si>
   <si>
+    <t>FantomFutureOfDeFi(@FTMFutureOfDeFi)</t>
+  </si>
+  <si>
+    <t>Fantomsien(@sky61541939)</t>
+  </si>
+  <si>
+    <t>0xbe8a8d2f19285Eeaa1B5AbD1d5Bde2E903F9DfA9</t>
+  </si>
+  <si>
+    <t>Distributed #44</t>
+  </si>
+  <si>
     <t>Wait list</t>
   </si>
   <si>
+    <t>BTC’ed (@BTC_Ed89)</t>
+  </si>
+  <si>
+    <t>0x5A81b38F189b23fFAd763B90d75723D45d01C2D2</t>
+  </si>
+  <si>
+    <t>In consideration</t>
+  </si>
+  <si>
     <t>Champygolf(@Gregcrypto)</t>
-  </si>
-  <si>
-    <t>In consideration</t>
-  </si>
-  <si>
-    <t>Brad Friesen(@BradDeanFriesen)</t>
-  </si>
-  <si>
-    <t>Crypto Hodler(@CryptoHodler22)</t>
-  </si>
-  <si>
-    <t>cRyP70h@kz(@crypt0hax)</t>
-  </si>
-  <si>
-    <t>Óscar Roriz(@oscarroriz)</t>
-  </si>
-  <si>
-    <t>XRP LoneRidersCoronel(@XRPLRCoronel)</t>
-  </si>
-  <si>
-    <t>Ricardo(@bushdoctor77)</t>
-  </si>
-  <si>
-    <t>BTC’ed (@BTC_Ed89)</t>
-  </si>
-  <si>
-    <t>0x5A81b38F189b23fFAd763B90d75723D45d01C2D2</t>
   </si>
   <si>
     <t>Beyaz Yaka(@kriptocuyum)</t>
@@ -572,7 +638,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -610,19 +676,16 @@
     </font>
     <font>
       <sz val="11.0"/>
-      <color rgb="FF0F1419"/>
+      <color rgb="FF5B7083"/>
       <name val="-apple-system"/>
     </font>
     <font>
       <sz val="11.0"/>
-      <color rgb="FF5B7083"/>
+      <color rgb="FF0F1419"/>
       <name val="-apple-system"/>
     </font>
-    <font>
-      <b/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -643,12 +706,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEBEEF0"/>
-        <bgColor rgb="FFEBEEF0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA4C2F4"/>
         <bgColor rgb="FFA4C2F4"/>
       </patternFill>
@@ -660,7 +717,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -688,25 +745,19 @@
     <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -972,135 +1023,135 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>2.0</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>3.0</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="F4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>4.0</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="5"/>
     </row>
     <row r="6">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>5.0</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="F6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>6.0</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="F7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>7.0</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="5"/>
@@ -1112,45 +1163,45 @@
       <c r="B9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="4" t="s">
+      <c r="F9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>9.0</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="5"/>
     </row>
     <row r="11">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>10.0</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1171,30 +1222,30 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>11.0</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="4" t="s">
+      <c r="F12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3">
+      <c r="A13" s="4">
         <v>12.0</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -1217,7 +1268,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3">
+      <c r="A14" s="4">
         <v>13.0</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -1238,7 +1289,7 @@
       <c r="G14" s="4"/>
     </row>
     <row r="15">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>14.0</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1261,7 +1312,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3">
+      <c r="A16" s="4">
         <v>15.0</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -1282,7 +1333,7 @@
       <c r="G16" s="4"/>
     </row>
     <row r="17">
-      <c r="A17" s="3">
+      <c r="A17" s="4">
         <v>16.0</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -1303,7 +1354,7 @@
       <c r="G17" s="4"/>
     </row>
     <row r="18">
-      <c r="A18" s="3">
+      <c r="A18" s="4">
         <v>17.0</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -1326,7 +1377,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3">
+      <c r="A19" s="4">
         <v>18.0</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -1355,16 +1406,16 @@
       <c r="B20" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="8" t="s">
@@ -1372,7 +1423,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3">
+      <c r="A21" s="4">
         <v>20.0</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -1471,21 +1522,21 @@
       <c r="A27" s="3">
         <v>26.0</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F27" s="9" t="s">
+      <c r="C27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3">
+      <c r="A28" s="4">
         <v>27.0</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -1500,13 +1551,13 @@
       <c r="E28" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="5"/>
     </row>
     <row r="29">
-      <c r="A29" s="3">
+      <c r="A29" s="4">
         <v>28.0</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -1527,36 +1578,40 @@
       <c r="G29" s="5"/>
     </row>
     <row r="30">
-      <c r="A30" s="3">
+      <c r="A30" s="4">
         <v>29.0</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="D30" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="5"/>
     </row>
     <row r="31">
       <c r="A31" s="3">
         <v>30.0</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F31" s="9" t="s">
+      <c r="B31" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1564,16 +1619,16 @@
       <c r="A32" s="3">
         <v>31.0</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F32" s="9" t="s">
+      <c r="B32" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1581,84 +1636,92 @@
       <c r="A33" s="3">
         <v>32.0</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F33" s="9" t="s">
+      <c r="B33" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="3">
+      <c r="A34" s="4">
         <v>33.0</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C34" s="10" t="s">
+      <c r="B34" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D34" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="C34" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="5"/>
     </row>
     <row r="35">
       <c r="A35" s="3">
         <v>34.0</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F35" s="9" t="s">
+      <c r="B35" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3">
+      <c r="A36" s="4">
         <v>35.0</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="B36" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="5"/>
     </row>
     <row r="37">
       <c r="A37" s="3">
         <v>36.0</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F37" s="9" t="s">
+      <c r="B37" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1666,50 +1729,58 @@
       <c r="A38" s="3">
         <v>37.0</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="B38" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="5"/>
     </row>
     <row r="39">
-      <c r="A39" s="3">
+      <c r="A39" s="4">
         <v>38.0</v>
       </c>
-      <c r="B39" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="B39" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="5"/>
     </row>
     <row r="40">
-      <c r="A40" s="3">
+      <c r="A40" s="4">
         <v>39.0</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F40" s="9" t="s">
+      <c r="B40" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1717,16 +1788,16 @@
       <c r="A41" s="3">
         <v>40.0</v>
       </c>
-      <c r="B41" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F41" s="9" t="s">
+      <c r="B41" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1734,16 +1805,16 @@
       <c r="A42" s="3">
         <v>41.0</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F42" s="9" t="s">
+      <c r="B42" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1751,16 +1822,16 @@
       <c r="A43" s="3">
         <v>42.0</v>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F43" s="9" t="s">
+      <c r="B43" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1768,16 +1839,16 @@
       <c r="A44" s="3">
         <v>43.0</v>
       </c>
-      <c r="B44" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F44" s="9" t="s">
+      <c r="B44" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1785,16 +1856,16 @@
       <c r="A45" s="3">
         <v>44.0</v>
       </c>
-      <c r="B45" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F45" s="9" t="s">
+      <c r="B45" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1802,16 +1873,16 @@
       <c r="A46" s="3">
         <v>45.0</v>
       </c>
-      <c r="B46" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F46" s="9" t="s">
+      <c r="B46" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1819,16 +1890,16 @@
       <c r="A47" s="3">
         <v>46.0</v>
       </c>
-      <c r="B47" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F47" s="9" t="s">
+      <c r="B47" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1836,16 +1907,16 @@
       <c r="A48" s="3">
         <v>47.0</v>
       </c>
-      <c r="B48" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F48" s="9" t="s">
+      <c r="B48" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1853,16 +1924,16 @@
       <c r="A49" s="3">
         <v>48.0</v>
       </c>
-      <c r="B49" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F49" s="9" t="s">
+      <c r="B49" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1870,16 +1941,16 @@
       <c r="A50" s="3">
         <v>49.0</v>
       </c>
-      <c r="B50" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F50" s="9" t="s">
+      <c r="B50" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F50" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1887,101 +1958,113 @@
       <c r="A51" s="3">
         <v>50.0</v>
       </c>
-      <c r="B51" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F51" s="9" t="s">
+      <c r="B51" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F51" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="3">
+      <c r="A52" s="4">
         <v>51.0</v>
       </c>
-      <c r="B52" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="B52" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="5"/>
     </row>
     <row r="53">
       <c r="A53" s="3">
         <v>52.0</v>
       </c>
-      <c r="B53" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F53" s="9" t="s">
+      <c r="B53" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F53" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="3">
+      <c r="A54" s="4">
         <v>53.0</v>
       </c>
-      <c r="B54" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="B54" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="5"/>
     </row>
     <row r="55">
-      <c r="A55" s="3">
+      <c r="A55" s="4">
         <v>54.0</v>
       </c>
-      <c r="B55" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="B55" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="5"/>
     </row>
     <row r="56">
       <c r="A56" s="3">
         <v>55.0</v>
       </c>
-      <c r="B56" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F56" s="9" t="s">
+      <c r="B56" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F56" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1989,16 +2072,16 @@
       <c r="A57" s="3">
         <v>56.0</v>
       </c>
-      <c r="B57" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F57" s="9" t="s">
+      <c r="B57" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F57" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2006,16 +2089,16 @@
       <c r="A58" s="3">
         <v>57.0</v>
       </c>
-      <c r="B58" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F58" s="9" t="s">
+      <c r="B58" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2023,37 +2106,37 @@
       <c r="A59" s="3">
         <v>58.0</v>
       </c>
-      <c r="B59" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" s="9" t="s">
+      <c r="B59" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>88</v>
       </c>
       <c r="E59" s="3"/>
-      <c r="F59" s="9" t="s">
+      <c r="F59" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3">
         <v>59.0</v>
       </c>
-      <c r="B60" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F60" s="9" t="s">
+      <c r="B60" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F60" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2061,16 +2144,16 @@
       <c r="A61" s="3">
         <v>60.0</v>
       </c>
-      <c r="B61" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F61" s="9" t="s">
+      <c r="B61" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F61" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2078,322 +2161,379 @@
       <c r="A62" s="3">
         <v>61.0</v>
       </c>
-      <c r="B62" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="F62" s="9" t="s">
+      <c r="B62" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F62" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="3">
+      <c r="A63" s="4">
         <v>63.0</v>
       </c>
-      <c r="B63" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F63" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="B63" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="5"/>
     </row>
     <row r="64">
       <c r="A64" s="3">
         <v>62.0</v>
       </c>
-      <c r="B64" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F64" s="9" t="s">
+      <c r="B64" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F64" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="3">
+      <c r="A65" s="4">
         <v>64.0</v>
       </c>
-      <c r="B65" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F65" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="B65" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="5"/>
     </row>
     <row r="66">
-      <c r="A66" s="3">
+      <c r="A66" s="4">
         <v>65.0</v>
       </c>
-      <c r="B66" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="B66" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="5"/>
     </row>
     <row r="67">
-      <c r="A67" s="3">
+      <c r="A67" s="4">
         <v>66.0</v>
       </c>
-      <c r="B67" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F67" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="B67" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="5"/>
     </row>
     <row r="68">
-      <c r="A68" s="3">
+      <c r="A68" s="4">
         <v>67.0</v>
       </c>
-      <c r="B68" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F68" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="B68" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="5"/>
     </row>
     <row r="69">
-      <c r="A69" s="3">
+      <c r="A69" s="4">
         <v>68.0</v>
       </c>
-      <c r="B69" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F69" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="B69" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="5"/>
     </row>
     <row r="70">
-      <c r="A70" s="3">
+      <c r="A70" s="4">
         <v>69.0</v>
       </c>
-      <c r="B70" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F70" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="B70" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" s="5"/>
     </row>
     <row r="71">
-      <c r="A71" s="3">
+      <c r="A71" s="4">
         <v>70.0</v>
       </c>
-      <c r="B71" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F71" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="B71" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="5"/>
     </row>
     <row r="72">
-      <c r="A72" s="3">
+      <c r="A72" s="4">
         <v>71.0</v>
       </c>
-      <c r="B72" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F72" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="B72" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="5"/>
     </row>
     <row r="73">
-      <c r="A73" s="3">
+      <c r="A73" s="4">
         <v>72.0</v>
       </c>
-      <c r="B73" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F73" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="B73" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" s="5"/>
     </row>
     <row r="74">
-      <c r="A74" s="3">
+      <c r="A74" s="4">
         <v>73.0</v>
       </c>
-      <c r="B74" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F74" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="B74" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" s="5"/>
     </row>
     <row r="75">
       <c r="A75" s="3">
         <v>74.0</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="F75" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F75" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="3">
+      <c r="A76" s="4">
         <v>75.0</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B76" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="5"/>
     </row>
     <row r="77">
       <c r="A77" s="3">
         <v>76.0</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="3">
+      <c r="A78" s="10">
         <v>77.0</v>
       </c>
-      <c r="B78" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F78" s="3" t="s">
+      <c r="B78" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F78" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="3">
+      <c r="A79" s="4">
         <v>78.0</v>
       </c>
-      <c r="B79" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="C79" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B79" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="5"/>
     </row>
     <row r="80">
-      <c r="A80" s="3">
+      <c r="A80" s="4">
         <v>79.0</v>
       </c>
-      <c r="B80" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="B80" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
     </row>
     <row r="81">
       <c r="A81" s="3">
         <v>80.0</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>8</v>
@@ -2406,11 +2546,34 @@
       <c r="A82" s="3">
         <v>81.0</v>
       </c>
+      <c r="B82" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="83">
-      <c r="A83" s="3">
+      <c r="A83" s="4">
         <v>82.0</v>
       </c>
+      <c r="B83" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
     </row>
     <row r="84">
       <c r="A84" s="3">
@@ -2503,137 +2666,56 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="13"/>
-      <c r="B102" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="C102" s="15"/>
-      <c r="D102" s="15"/>
+      <c r="A102" s="11"/>
+      <c r="B102" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
     </row>
     <row r="103">
-      <c r="B103" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="D103" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F103" s="9" t="s">
+      <c r="B103" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="B104" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C104" s="13" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="104">
-      <c r="B104" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="C104" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D104" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F104" s="9" t="s">
-        <v>173</v>
-      </c>
+      <c r="D104" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F104" s="3"/>
     </row>
     <row r="105">
-      <c r="B105" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="C105" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D105" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F105" s="9" t="s">
-        <v>173</v>
+      <c r="B105" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="106">
-      <c r="B106" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D106" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F106" s="9" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="B107" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="C107" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D107" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F107" s="9" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="B108" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="C108" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D108" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F108" s="9" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="B109" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="C109" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D109" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F109" s="9" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="B110" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C110" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="D110" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F110" s="9" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="B111" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="D111" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F111" s="9" t="s">
-        <v>173</v>
+      <c r="F106" s="3" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/FantomSuperFanList.xlsx
+++ b/FantomSuperFanList.xlsx
@@ -5,13 +5,15 @@
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$G$106</definedName>
+  </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="215">
   <si>
     <t>S.No</t>
   </si>
@@ -388,6 +390,9 @@
     <t>0xf574B18a7B7434Fd33074eE2067fAf39F12B450A</t>
   </si>
   <si>
+    <t>Distributed #46</t>
+  </si>
+  <si>
     <t>Yodo(@JuanMon48443855)</t>
   </si>
   <si>
@@ -397,9 +402,21 @@
     <t>@triangulair</t>
   </si>
   <si>
+    <t>0xfA31DCfF7bED47232B82b50FC0ec9582b9B4Fb3a</t>
+  </si>
+  <si>
+    <t>Distributed #47</t>
+  </si>
+  <si>
     <t>Crypto Moonboy(@Cryptos_Moonboy)</t>
   </si>
   <si>
+    <t>0xbf4Ea3863F29De431ddC83D66ABE16BEB63B5016</t>
+  </si>
+  <si>
+    <t>Distributed #45</t>
+  </si>
+  <si>
     <t>Z Times(@TrippieBirdie)</t>
   </si>
   <si>
@@ -611,6 +628,18 @@
   </si>
   <si>
     <t>Distributed #44</t>
+  </si>
+  <si>
+    <t>bebis(@0xBebis_)</t>
+  </si>
+  <si>
+    <t>0x5aa1039D09330DF607F88e72bb9C1E0F66C96AA0</t>
+  </si>
+  <si>
+    <t>Distributed #48</t>
+  </si>
+  <si>
+    <t>OfficialNFTees(@OfficialNFTees)</t>
   </si>
   <si>
     <t>Wait list</t>
@@ -638,7 +667,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -676,11 +705,6 @@
     </font>
     <font>
       <sz val="11.0"/>
-      <color rgb="FF5B7083"/>
-      <name val="-apple-system"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
       <color rgb="FF0F1419"/>
       <name val="-apple-system"/>
     </font>
@@ -700,14 +724,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFA4C2F4"/>
+        <bgColor rgb="FFA4C2F4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA4C2F4"/>
-        <bgColor rgb="FFA4C2F4"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -717,7 +741,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -745,17 +769,14 @@
     <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1207,16 +1228,16 @@
       <c r="B11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="5"/>
@@ -1251,19 +1272,19 @@
       <c r="B13" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="4" t="s">
+      <c r="F13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1274,19 +1295,19 @@
       <c r="B14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="4"/>
+      <c r="F14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="5"/>
     </row>
     <row r="15">
       <c r="A15" s="4">
@@ -1295,16 +1316,16 @@
       <c r="B15" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="6" t="s">
@@ -1318,19 +1339,19 @@
       <c r="B16" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="4"/>
+      <c r="F16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="5"/>
     </row>
     <row r="17">
       <c r="A17" s="4">
@@ -1339,19 +1360,19 @@
       <c r="B17" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="4"/>
+      <c r="F17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="5"/>
     </row>
     <row r="18">
       <c r="A18" s="4">
@@ -1360,19 +1381,19 @@
       <c r="B18" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="4" t="s">
+      <c r="F18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1383,19 +1404,19 @@
       <c r="B19" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="4" t="s">
+      <c r="F19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1429,19 +1450,19 @@
       <c r="B21" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="4" t="s">
+      <c r="F21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1539,16 +1560,16 @@
       <c r="A28" s="4">
         <v>27.0</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E28" s="4" t="s">
+      <c r="D28" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F28" s="3" t="s">
@@ -1560,19 +1581,19 @@
       <c r="A29" s="4">
         <v>28.0</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E29" s="4" t="s">
+      <c r="D29" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="5"/>
@@ -1581,19 +1602,19 @@
       <c r="A30" s="4">
         <v>29.0</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E30" s="4" t="s">
+      <c r="D30" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="5"/>
@@ -1653,16 +1674,16 @@
       <c r="A34" s="4">
         <v>33.0</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E34" s="4" t="s">
+      <c r="D34" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>103</v>
       </c>
       <c r="F34" s="3" t="s">
@@ -1691,16 +1712,16 @@
       <c r="A36" s="4">
         <v>35.0</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E36" s="4" t="s">
+      <c r="D36" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>107</v>
       </c>
       <c r="F36" s="3" t="s">
@@ -1726,22 +1747,22 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3">
+      <c r="A38" s="4">
         <v>37.0</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E38" s="4" t="s">
+      <c r="D38" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F38" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="5"/>
@@ -1750,25 +1771,25 @@
       <c r="A39" s="4">
         <v>38.0</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E39" s="4" t="s">
+      <c r="D39" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F39" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="5"/>
     </row>
     <row r="40">
-      <c r="A40" s="4">
+      <c r="A40" s="9">
         <v>39.0</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -1887,28 +1908,32 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3">
+      <c r="A47" s="4">
         <v>46.0</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="D47" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="5"/>
     </row>
     <row r="48">
       <c r="A48" s="3">
         <v>47.0</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>8</v>
@@ -1925,7 +1950,7 @@
         <v>48.0</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>8</v>
@@ -1938,56 +1963,64 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="3">
+      <c r="A50" s="4">
         <v>49.0</v>
       </c>
-      <c r="B50" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B50" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="5"/>
     </row>
     <row r="51">
-      <c r="A51" s="3">
+      <c r="A51" s="4">
         <v>50.0</v>
       </c>
-      <c r="B51" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="B51" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="5"/>
     </row>
     <row r="52">
       <c r="A52" s="4">
         <v>51.0</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="F52" s="10" t="s">
+      <c r="B52" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F52" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="5"/>
@@ -1997,7 +2030,7 @@
         <v>52.0</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>8</v>
@@ -2013,17 +2046,17 @@
       <c r="A54" s="4">
         <v>53.0</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>134</v>
+      <c r="B54" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>139</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>10</v>
@@ -2034,17 +2067,17 @@
       <c r="A55" s="4">
         <v>54.0</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>137</v>
+      <c r="B55" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>10</v>
@@ -2056,7 +2089,7 @@
         <v>55.0</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>8</v>
@@ -2073,7 +2106,7 @@
         <v>56.0</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>8</v>
@@ -2090,7 +2123,7 @@
         <v>57.0</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>8</v>
@@ -2107,7 +2140,7 @@
         <v>58.0</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>8</v>
@@ -2120,7 +2153,7 @@
         <v>10</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="60">
@@ -2128,7 +2161,7 @@
         <v>59.0</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>8</v>
@@ -2145,7 +2178,7 @@
         <v>60.0</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>8</v>
@@ -2162,13 +2195,13 @@
         <v>61.0</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>10</v>
@@ -2179,16 +2212,16 @@
         <v>63.0</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>10</v>
@@ -2200,7 +2233,7 @@
         <v>62.0</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>8</v>
@@ -2217,16 +2250,16 @@
         <v>64.0</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>10</v>
@@ -2238,16 +2271,16 @@
         <v>65.0</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>10</v>
@@ -2259,16 +2292,16 @@
         <v>66.0</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>10</v>
@@ -2280,16 +2313,16 @@
         <v>67.0</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>10</v>
@@ -2301,16 +2334,16 @@
         <v>68.0</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>10</v>
@@ -2322,16 +2355,16 @@
         <v>69.0</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>10</v>
@@ -2343,16 +2376,16 @@
         <v>70.0</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>10</v>
@@ -2364,16 +2397,16 @@
         <v>71.0</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>10</v>
@@ -2385,16 +2418,16 @@
         <v>72.0</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>10</v>
@@ -2406,16 +2439,16 @@
         <v>73.0</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>10</v>
@@ -2427,13 +2460,13 @@
         <v>74.0</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>10</v>
@@ -2444,16 +2477,16 @@
         <v>75.0</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>10</v>
@@ -2465,26 +2498,26 @@
         <v>76.0</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="10">
+      <c r="A78" s="9">
         <v>77.0</v>
       </c>
-      <c r="B78" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="F78" s="10" t="s">
+      <c r="B78" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F78" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2493,16 +2526,16 @@
         <v>78.0</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>10</v>
@@ -2514,16 +2547,16 @@
         <v>79.0</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
@@ -2533,7 +2566,7 @@
         <v>80.0</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>8</v>
@@ -2546,8 +2579,8 @@
       <c r="A82" s="3">
         <v>81.0</v>
       </c>
-      <c r="B82" s="10" t="s">
-        <v>195</v>
+      <c r="B82" s="3" t="s">
+        <v>200</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>8</v>
@@ -2561,29 +2594,52 @@
         <v>82.0</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
     </row>
     <row r="84">
-      <c r="A84" s="3">
+      <c r="A84" s="4">
         <v>83.0</v>
       </c>
+      <c r="B84" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
     </row>
     <row r="85">
       <c r="A85" s="3">
         <v>84.0</v>
       </c>
+      <c r="B85" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="3">
@@ -2666,59 +2722,60 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="11"/>
-      <c r="B102" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="C102" s="12"/>
-      <c r="D102" s="12"/>
+      <c r="A102" s="10"/>
+      <c r="B102" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
     </row>
     <row r="103">
       <c r="B103" s="3" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>88</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="104">
-      <c r="B104" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="C104" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="D104" s="10" t="s">
+      <c r="B104" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="D104" s="9" t="s">
         <v>88</v>
       </c>
       <c r="F104" s="3"/>
     </row>
     <row r="105">
       <c r="B105" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C105" s="13" t="s">
-        <v>205</v>
+        <v>213</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>214</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>88</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="106">
       <c r="F106" s="3" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="$A$1:$G$106"/>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="A1"/>
     <hyperlink r:id="rId2" ref="G15"/>

--- a/FantomSuperFanList.xlsx
+++ b/FantomSuperFanList.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="225">
   <si>
     <t>S.No</t>
   </si>
@@ -450,6 +450,12 @@
     <t>Srikanth Tirumalasetty(@sreedarlin)</t>
   </si>
   <si>
+    <t>0x58862ABB727d61BC8e8e1151a4aeb07adec92741</t>
+  </si>
+  <si>
+    <t>Distributed #49</t>
+  </si>
+  <si>
     <t>Crypto Bull(@_Crypto_Bul)</t>
   </si>
   <si>
@@ -640,6 +646,30 @@
   </si>
   <si>
     <t>OfficialNFTees(@OfficialNFTees)</t>
+  </si>
+  <si>
+    <t>0xd7122A9D2c44D16083e2e6ac16E8846292ed6bCb</t>
+  </si>
+  <si>
+    <t>Distributed #50</t>
+  </si>
+  <si>
+    <t>ZooCoin(@CoinZoo)</t>
+  </si>
+  <si>
+    <t>Reed</t>
+  </si>
+  <si>
+    <t>Degent watch</t>
+  </si>
+  <si>
+    <t>Jigs</t>
+  </si>
+  <si>
+    <t>Discord</t>
+  </si>
+  <si>
+    <t>Reserved for mass distribution to the broader community</t>
   </si>
   <si>
     <t>Wait list</t>
@@ -667,7 +697,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -683,11 +713,11 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <u/>
       <color rgb="FF0000FF"/>
@@ -702,6 +732,11 @@
       <sz val="11.0"/>
       <color rgb="FF1B95E0"/>
       <name val="-apple-system"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF5B7083"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -724,14 +759,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA4C2F4"/>
-        <bgColor rgb="FFA4C2F4"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFA4C2F4"/>
+        <bgColor rgb="FFA4C2F4"/>
       </patternFill>
     </fill>
   </fills>
@@ -741,7 +776,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -754,10 +789,10 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -772,11 +807,14 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1467,92 +1505,92 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3">
+      <c r="A22" s="9">
         <v>21.0</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="3" t="s">
+      <c r="C22" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3">
+      <c r="A23" s="9">
         <v>22.0</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="3" t="s">
+      <c r="C23" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3">
+      <c r="A24" s="9">
         <v>23.0</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="3" t="s">
+      <c r="C24" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3">
+      <c r="A25" s="9">
         <v>24.0</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="3" t="s">
+      <c r="C25" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3">
+      <c r="A26" s="9">
         <v>25.0</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="3" t="s">
+      <c r="C26" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3">
+      <c r="A27" s="9">
         <v>26.0</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F27" s="3" t="s">
+      <c r="C27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1572,7 +1610,7 @@
       <c r="E28" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="5"/>
@@ -1620,53 +1658,53 @@
       <c r="G30" s="5"/>
     </row>
     <row r="31">
-      <c r="A31" s="3">
+      <c r="A31" s="9">
         <v>30.0</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F31" s="3" t="s">
+      <c r="C31" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F31" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3">
+      <c r="A32" s="9">
         <v>31.0</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F32" s="3" t="s">
+      <c r="C32" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F32" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3">
+      <c r="A33" s="9">
         <v>32.0</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F33" s="3" t="s">
+      <c r="C33" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F33" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1686,25 +1724,25 @@
       <c r="E34" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="5"/>
     </row>
     <row r="35">
-      <c r="A35" s="3">
+      <c r="A35" s="9">
         <v>34.0</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F35" s="3" t="s">
+      <c r="C35" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F35" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1724,25 +1762,25 @@
       <c r="E36" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="5"/>
     </row>
     <row r="37">
-      <c r="A37" s="3">
+      <c r="A37" s="9">
         <v>36.0</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F37" s="3" t="s">
+      <c r="C37" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F37" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1789,121 +1827,121 @@
       <c r="G39" s="5"/>
     </row>
     <row r="40">
-      <c r="A40" s="9">
+      <c r="A40" s="3">
         <v>39.0</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F40" s="3" t="s">
+      <c r="C40" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F40" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3">
+      <c r="A41" s="9">
         <v>40.0</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F41" s="3" t="s">
+      <c r="C41" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F41" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3">
+      <c r="A42" s="9">
         <v>41.0</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F42" s="3" t="s">
+      <c r="C42" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F42" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3">
+      <c r="A43" s="9">
         <v>42.0</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F43" s="3" t="s">
+      <c r="C43" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F43" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3">
+      <c r="A44" s="9">
         <v>43.0</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F44" s="3" t="s">
+      <c r="C44" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F44" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3">
+      <c r="A45" s="9">
         <v>44.0</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F45" s="3" t="s">
+      <c r="C45" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="3">
+      <c r="A46" s="9">
         <v>45.0</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F46" s="3" t="s">
+      <c r="C46" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1929,36 +1967,36 @@
       <c r="G47" s="5"/>
     </row>
     <row r="48">
-      <c r="A48" s="3">
+      <c r="A48" s="9">
         <v>47.0</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F48" s="3" t="s">
+      <c r="C48" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F48" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="3">
+      <c r="A49" s="9">
         <v>48.0</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F49" s="3" t="s">
+      <c r="C49" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F49" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1999,7 +2037,7 @@
       <c r="E51" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="F51" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="5"/>
@@ -2020,25 +2058,25 @@
       <c r="E52" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="F52" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="5"/>
     </row>
     <row r="53">
-      <c r="A53" s="3">
+      <c r="A53" s="9">
         <v>52.0</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F53" s="3" t="s">
+      <c r="C53" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F53" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2058,7 +2096,7 @@
       <c r="E54" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="F54" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="5"/>
@@ -2079,131 +2117,134 @@
       <c r="E55" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="F55" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="5"/>
     </row>
     <row r="56">
-      <c r="A56" s="3">
+      <c r="A56" s="4">
         <v>55.0</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F56" s="3" t="s">
+      <c r="C56" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F56" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="3">
+      <c r="A57" s="9">
         <v>56.0</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F57" s="3" t="s">
+      <c r="B57" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F57" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="3">
+      <c r="A58" s="9">
         <v>57.0</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F58" s="3" t="s">
+      <c r="B58" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F58" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="3">
+      <c r="A59" s="9">
         <v>58.0</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>147</v>
+      <c r="B59" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="3">
+      <c r="A60" s="9">
         <v>59.0</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F60" s="3" t="s">
+      <c r="B60" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F60" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="3">
+      <c r="A61" s="9">
         <v>60.0</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F61" s="3" t="s">
+      <c r="B61" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F61" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="3">
+      <c r="A62" s="9">
         <v>61.0</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F62" s="3" t="s">
+      <c r="B62" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="F62" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2212,16 +2253,16 @@
         <v>63.0</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>10</v>
@@ -2229,19 +2270,19 @@
       <c r="G63" s="5"/>
     </row>
     <row r="64">
-      <c r="A64" s="3">
+      <c r="A64" s="9">
         <v>62.0</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F64" s="3" t="s">
+      <c r="B64" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F64" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2250,16 +2291,16 @@
         <v>64.0</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>10</v>
@@ -2271,16 +2312,16 @@
         <v>65.0</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>10</v>
@@ -2292,16 +2333,16 @@
         <v>66.0</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>10</v>
@@ -2313,16 +2354,16 @@
         <v>67.0</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>10</v>
@@ -2334,16 +2375,16 @@
         <v>68.0</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>10</v>
@@ -2355,16 +2396,16 @@
         <v>69.0</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>10</v>
@@ -2376,16 +2417,16 @@
         <v>70.0</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>10</v>
@@ -2397,16 +2438,16 @@
         <v>71.0</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>10</v>
@@ -2418,16 +2459,16 @@
         <v>72.0</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>10</v>
@@ -2439,16 +2480,16 @@
         <v>73.0</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>10</v>
@@ -2456,19 +2497,19 @@
       <c r="G74" s="5"/>
     </row>
     <row r="75">
-      <c r="A75" s="3">
+      <c r="A75" s="9">
         <v>74.0</v>
       </c>
-      <c r="B75" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="F75" s="3" t="s">
+      <c r="B75" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="F75" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2477,16 +2518,16 @@
         <v>75.0</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>10</v>
@@ -2494,30 +2535,36 @@
       <c r="G76" s="5"/>
     </row>
     <row r="77">
-      <c r="A77" s="3">
+      <c r="A77" s="9">
         <v>76.0</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="F77" s="3" t="s">
+      <c r="B77" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F77" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="9">
+      <c r="A78" s="3">
         <v>77.0</v>
       </c>
-      <c r="B78" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F78" s="9" t="s">
+      <c r="B78" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F78" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2526,16 +2573,16 @@
         <v>78.0</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>10</v>
@@ -2547,45 +2594,45 @@
         <v>79.0</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
     </row>
     <row r="81">
-      <c r="A81" s="3">
+      <c r="A81" s="9">
         <v>80.0</v>
       </c>
-      <c r="B81" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D81" s="3" t="s">
+      <c r="B81" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="3">
+      <c r="A82" s="9">
         <v>81.0</v>
       </c>
-      <c r="B82" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D82" s="3" t="s">
+      <c r="B82" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="9" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2594,16 +2641,16 @@
         <v>82.0</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
@@ -2613,165 +2660,216 @@
         <v>83.0</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
     </row>
     <row r="85">
-      <c r="A85" s="3">
+      <c r="A85" s="4">
         <v>84.0</v>
       </c>
-      <c r="B85" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>88</v>
+      <c r="B85" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="3">
+      <c r="A86" s="9">
         <v>85.0</v>
       </c>
+      <c r="B86" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="87">
-      <c r="A87" s="3">
+      <c r="A87" s="9">
         <v>86.0</v>
       </c>
+      <c r="B87" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="88">
-      <c r="A88" s="3">
+      <c r="A88" s="9">
         <v>87.0</v>
       </c>
+      <c r="B88" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="89">
-      <c r="A89" s="3">
+      <c r="A89" s="9">
         <v>88.0</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="3">
+      <c r="A90" s="9">
         <v>89.0</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="3">
+      <c r="A91" s="9">
         <v>90.0</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="3">
+      <c r="A92" s="9">
         <v>91.0</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="3">
+      <c r="A93" s="9">
         <v>92.0</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="3">
+      <c r="A94" s="9">
         <v>93.0</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="3">
+      <c r="A95" s="9">
         <v>94.0</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="3">
+      <c r="A96" s="9">
         <v>95.0</v>
       </c>
+      <c r="B96" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="97">
-      <c r="A97" s="3">
+      <c r="A97" s="9">
         <v>96.0</v>
       </c>
+      <c r="B97" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="98">
-      <c r="A98" s="3">
+      <c r="A98" s="9">
         <v>97.0</v>
       </c>
+      <c r="B98" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="99">
-      <c r="A99" s="3">
+      <c r="A99" s="9">
         <v>98.0</v>
       </c>
+      <c r="B99" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="100">
-      <c r="A100" s="3">
+      <c r="A100" s="9">
         <v>99.0</v>
       </c>
+      <c r="B100" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="101">
-      <c r="A101" s="3">
+      <c r="A101" s="9">
         <v>100.0</v>
       </c>
+      <c r="B101" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="102">
-      <c r="A102" s="10"/>
-      <c r="B102" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="C102" s="11"/>
-      <c r="D102" s="11"/>
+      <c r="A102" s="11"/>
+      <c r="B102" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
     </row>
     <row r="103">
-      <c r="B103" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>211</v>
+      <c r="B103" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="104">
-      <c r="B104" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="C104" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="D104" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F104" s="3"/>
+      <c r="B104" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F104" s="9"/>
     </row>
     <row r="105">
-      <c r="B105" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C105" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>211</v>
+      <c r="B105" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="106">
-      <c r="F106" s="3" t="s">
-        <v>211</v>
+      <c r="F106" s="9" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/FantomSuperFanList.xlsx
+++ b/FantomSuperFanList.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="233">
   <si>
     <t>S.No</t>
   </si>
@@ -366,6 +366,12 @@
     <t>cryptorama - FTM and VRA(@Oncryptobreak)</t>
   </si>
   <si>
+    <t>0x591f26d35dFbB670D6Dc78161e1012A69d327074</t>
+  </si>
+  <si>
+    <t>Distributed #54</t>
+  </si>
+  <si>
     <t>Jane(@Jane01094986)</t>
   </si>
   <si>
@@ -459,7 +465,13 @@
     <t>Crypto Bull(@_Crypto_Bul)</t>
   </si>
   <si>
-    <t>KeshaV@VKersu)</t>
+    <t>KeshaV(@VKersu)</t>
+  </si>
+  <si>
+    <t>0xbbC02dbD39941FFFa605171A977D44C6BAF915c2</t>
+  </si>
+  <si>
+    <t>Distributed #51</t>
   </si>
   <si>
     <t>Daniele S.(@danielesesta)</t>
@@ -585,9 +597,15 @@
     <t>Ceazor (@Ceazor7)</t>
   </si>
   <si>
+    <t>0x3c5Aac016EF2F178e8699D6208796A2D67557fe2</t>
+  </si>
+  <si>
     <t>Twitter/Youtube</t>
   </si>
   <si>
+    <t>Distributed #53</t>
+  </si>
+  <si>
     <t>Fantom Raspberry Blower(@fantomvetz)</t>
   </si>
   <si>
@@ -657,7 +675,13 @@
     <t>ZooCoin(@CoinZoo)</t>
   </si>
   <si>
-    <t>Reed</t>
+    <t>Reed(@Degen_Watch)</t>
+  </si>
+  <si>
+    <t>0xfbe1ab3706e98322b1b0585C78A602C16A6b3D65</t>
+  </si>
+  <si>
+    <t>Distributed #52</t>
   </si>
   <si>
     <t>Degent watch</t>
@@ -1827,28 +1851,32 @@
       <c r="G39" s="5"/>
     </row>
     <row r="40">
-      <c r="A40" s="3">
+      <c r="A40" s="4">
         <v>39.0</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C40" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>88</v>
+      <c r="C40" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="F40" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="G40" s="5"/>
     </row>
     <row r="41">
       <c r="A41" s="9">
         <v>40.0</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>8</v>
@@ -1865,7 +1893,7 @@
         <v>41.0</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>8</v>
@@ -1882,7 +1910,7 @@
         <v>42.0</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>8</v>
@@ -1899,7 +1927,7 @@
         <v>43.0</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>8</v>
@@ -1916,7 +1944,7 @@
         <v>44.0</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>8</v>
@@ -1933,7 +1961,7 @@
         <v>45.0</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>8</v>
@@ -1950,16 +1978,16 @@
         <v>46.0</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>10</v>
@@ -1971,7 +1999,7 @@
         <v>47.0</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>8</v>
@@ -1988,7 +2016,7 @@
         <v>48.0</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>8</v>
@@ -2005,16 +2033,16 @@
         <v>49.0</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>10</v>
@@ -2026,16 +2054,16 @@
         <v>50.0</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F51" s="9" t="s">
         <v>10</v>
@@ -2047,16 +2075,16 @@
         <v>51.0</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>88</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F52" s="9" t="s">
         <v>10</v>
@@ -2068,7 +2096,7 @@
         <v>52.0</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>8</v>
@@ -2085,16 +2113,16 @@
         <v>53.0</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>88</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F54" s="9" t="s">
         <v>10</v>
@@ -2106,16 +2134,16 @@
         <v>54.0</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>88</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F55" s="9" t="s">
         <v>10</v>
@@ -2127,27 +2155,28 @@
         <v>55.0</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F56" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="G56" s="5"/>
     </row>
     <row r="57">
       <c r="A57" s="9">
         <v>56.0</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C57" s="9" t="s">
         <v>8</v>
@@ -2160,28 +2189,32 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="9">
+      <c r="A58" s="4">
         <v>57.0</v>
       </c>
-      <c r="B58" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>88</v>
+      <c r="B58" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="F58" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="G58" s="5"/>
     </row>
     <row r="59">
       <c r="A59" s="9">
         <v>58.0</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>8</v>
@@ -2194,7 +2227,7 @@
         <v>10</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="60">
@@ -2202,7 +2235,7 @@
         <v>59.0</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C60" s="9" t="s">
         <v>8</v>
@@ -2219,7 +2252,7 @@
         <v>60.0</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C61" s="9" t="s">
         <v>8</v>
@@ -2236,13 +2269,13 @@
         <v>61.0</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F62" s="9" t="s">
         <v>10</v>
@@ -2253,16 +2286,16 @@
         <v>63.0</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>10</v>
@@ -2274,7 +2307,7 @@
         <v>62.0</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C64" s="9" t="s">
         <v>8</v>
@@ -2291,16 +2324,16 @@
         <v>64.0</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>10</v>
@@ -2312,16 +2345,16 @@
         <v>65.0</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>10</v>
@@ -2333,16 +2366,16 @@
         <v>66.0</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>10</v>
@@ -2354,16 +2387,16 @@
         <v>67.0</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>10</v>
@@ -2375,16 +2408,16 @@
         <v>68.0</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>10</v>
@@ -2396,16 +2429,16 @@
         <v>69.0</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>10</v>
@@ -2417,16 +2450,16 @@
         <v>70.0</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>10</v>
@@ -2438,16 +2471,16 @@
         <v>71.0</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>10</v>
@@ -2459,16 +2492,16 @@
         <v>72.0</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>10</v>
@@ -2480,16 +2513,16 @@
         <v>73.0</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>10</v>
@@ -2497,37 +2530,41 @@
       <c r="G74" s="5"/>
     </row>
     <row r="75">
-      <c r="A75" s="9">
+      <c r="A75" s="4">
         <v>74.0</v>
       </c>
-      <c r="B75" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="F75" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="B75" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="5"/>
     </row>
     <row r="76">
       <c r="A76" s="4">
         <v>75.0</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>10</v>
@@ -2539,7 +2576,7 @@
         <v>76.0</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C77" s="9" t="s">
         <v>8</v>
@@ -2556,7 +2593,7 @@
         <v>77.0</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>8</v>
@@ -2573,16 +2610,16 @@
         <v>78.0</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>10</v>
@@ -2594,16 +2631,16 @@
         <v>79.0</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
@@ -2613,7 +2650,7 @@
         <v>80.0</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C81" s="9" t="s">
         <v>8</v>
@@ -2627,7 +2664,7 @@
         <v>81.0</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C82" s="9" t="s">
         <v>8</v>
@@ -2641,16 +2678,16 @@
         <v>82.0</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
@@ -2660,16 +2697,16 @@
         <v>83.0</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
@@ -2679,24 +2716,25 @@
         <v>84.0</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>211</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="G85" s="5"/>
     </row>
     <row r="86">
       <c r="A86" s="9">
         <v>85.0</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>8</v>
@@ -2706,20 +2744,24 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="9">
+      <c r="A87" s="4">
         <v>86.0</v>
       </c>
-      <c r="B87" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="C87" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="G87" s="9" t="s">
-        <v>214</v>
+      <c r="B87" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F87" s="5"/>
+      <c r="G87" s="4" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="88">
@@ -2727,13 +2769,13 @@
         <v>87.0</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="C88" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="89">
@@ -2776,7 +2818,7 @@
         <v>95.0</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="97">
@@ -2784,7 +2826,7 @@
         <v>96.0</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="98">
@@ -2792,7 +2834,7 @@
         <v>97.0</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="99">
@@ -2800,7 +2842,7 @@
         <v>98.0</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="100">
@@ -2808,7 +2850,7 @@
         <v>99.0</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="101">
@@ -2816,37 +2858,37 @@
         <v>100.0</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="11"/>
       <c r="B102" s="11" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C102" s="12"/>
       <c r="D102" s="12"/>
     </row>
     <row r="103">
       <c r="B103" s="9" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="D103" s="9" t="s">
         <v>88</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="104">
       <c r="B104" s="3" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>88</v>
@@ -2855,21 +2897,21 @@
     </row>
     <row r="105">
       <c r="B105" s="9" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="D105" s="9" t="s">
         <v>88</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="106">
       <c r="F106" s="9" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/FantomSuperFanList.xlsx
+++ b/FantomSuperFanList.xlsx
@@ -5,15 +5,13 @@
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$G$106</definedName>
-  </definedNames>
+  <definedNames/>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="260">
   <si>
     <t>S.No</t>
   </si>
@@ -264,7 +262,16 @@
     <t>@Spirit_Swap</t>
   </si>
   <si>
-    <t>SpookySwap</t>
+    <t>SpookySwap(@SpookySwap)</t>
+  </si>
+  <si>
+    <t>0x95478C4F7D22D1048F46100001c2C69D2BA57380</t>
+  </si>
+  <si>
+    <t>Distributed #55</t>
+  </si>
+  <si>
+    <t>@SpookySwap</t>
   </si>
   <si>
     <t>HyperSwap(@hyper_swap)</t>
@@ -273,6 +280,12 @@
     <t>Ester Finance (@EsterFinance)</t>
   </si>
   <si>
+    <t>0x683d0EE83bd72F10d122800B38a4Fa3095a28f21</t>
+  </si>
+  <si>
+    <t>Distributed #63</t>
+  </si>
+  <si>
     <t>Waka Finance(@WakaFinance)</t>
   </si>
   <si>
@@ -345,6 +358,12 @@
     <t>IntroToDefi(@DefiIntro)</t>
   </si>
   <si>
+    <t>0x1b19572d3e9EE2E53E4f7Baa6c47a19b2Fc44EB8</t>
+  </si>
+  <si>
+    <t>Distributed #58</t>
+  </si>
+  <si>
     <t>Crypto Guh | $FTM King(@stillhereguh)</t>
   </si>
   <si>
@@ -375,6 +394,12 @@
     <t>Jane(@Jane01094986)</t>
   </si>
   <si>
+    <t>0xB8d60B68D11dD11dc049a9E6Eb9054fdBfFe6226</t>
+  </si>
+  <si>
+    <t>Distributed #64</t>
+  </si>
+  <si>
     <t>Alexande🅡 Jacobi 🅕(@aj_alexjacobi)</t>
   </si>
   <si>
@@ -390,6 +415,12 @@
     <t>CryptoFarmAlpha(@CryptoFarmAlpha)</t>
   </si>
   <si>
+    <t>0x3831d812f87814B2203615D1bf1A647d1c1816c5</t>
+  </si>
+  <si>
+    <t>Distributed #65</t>
+  </si>
+  <si>
     <t>CryptoGod 🅕(@SleeperCrypto)</t>
   </si>
   <si>
@@ -435,6 +466,12 @@
     <t>KO(@TinFoilRealist)</t>
   </si>
   <si>
+    <t>0x1377e95651fAedC3FDc7750ddAbDeCdDA95c21ea</t>
+  </si>
+  <si>
+    <t>Distributed #60</t>
+  </si>
+  <si>
     <t>Florian S.(@s_floriansusu)</t>
   </si>
   <si>
@@ -483,9 +520,21 @@
     <t>Joe(@cutch_r)</t>
   </si>
   <si>
+    <t>0x567C762cF013235657db38675c1282Bb0346136f</t>
+  </si>
+  <si>
+    <t>Distributed #61</t>
+  </si>
+  <si>
     <t>I'M!!Trilok(@TrilokArya6)</t>
   </si>
   <si>
+    <t>0x805115B94fdE81E77256e2e513455D9050b0671C</t>
+  </si>
+  <si>
+    <t>to be confirmed via twitter</t>
+  </si>
+  <si>
     <t>Roosh(TheRabbit )</t>
   </si>
   <si>
@@ -504,6 +553,12 @@
     <t>Ashura San(@AshuraSan3)</t>
   </si>
   <si>
+    <t>0x8b72090cA84Ba20c41C2e2E3e20AEF2CD88360f5</t>
+  </si>
+  <si>
+    <t>Distributed #66</t>
+  </si>
+  <si>
     <t>BitFeligan (@febg97)</t>
   </si>
   <si>
@@ -621,6 +676,12 @@
     <t>JohnnyFantom(@JohnnyFantom5)</t>
   </si>
   <si>
+    <t>0x718415C143A5A42E04b1E0230762bb730cB034bF</t>
+  </si>
+  <si>
+    <t>Distributed #57</t>
+  </si>
+  <si>
     <t>Johnny Bravo(@Jonathan_Kettle)</t>
   </si>
   <si>
@@ -639,12 +700,24 @@
     <t>Distributed #43</t>
   </si>
   <si>
-    <t>DAO MCLB</t>
+    <t>Millennium Club DAO  (@MillenniumClub3)</t>
+  </si>
+  <si>
+    <t>0x5D22db0DDC365Dbdc0983441E2906D51855a142D</t>
+  </si>
+  <si>
+    <t>Distributed #62</t>
   </si>
   <si>
     <t>FantomFutureOfDeFi(@FTMFutureOfDeFi)</t>
   </si>
   <si>
+    <t>0xae41a76e5Bb450DA72D54aEebA59393419B40Ae4</t>
+  </si>
+  <si>
+    <t>Distributed #56</t>
+  </si>
+  <si>
     <t>Fantomsien(@sky61541939)</t>
   </si>
   <si>
@@ -693,35 +766,41 @@
     <t>Discord</t>
   </si>
   <si>
+    <t>deepstare(@leonard_bayard)</t>
+  </si>
+  <si>
+    <t>0xCef12e8FE072C42f8d4e2E698624c33e21E74263</t>
+  </si>
+  <si>
+    <t>Distributed #59</t>
+  </si>
+  <si>
+    <t>ZOO NFT artist</t>
+  </si>
+  <si>
+    <t>BTC’ed (@BTC_Ed89)</t>
+  </si>
+  <si>
+    <t>0x5A81b38F189b23fFAd763B90d75723D45d01C2D2</t>
+  </si>
+  <si>
+    <t>Distributed #67</t>
+  </si>
+  <si>
+    <t>Reserved for Meme competetion</t>
+  </si>
+  <si>
     <t>Reserved for mass distribution to the broader community</t>
   </si>
   <si>
-    <t>Wait list</t>
-  </si>
-  <si>
-    <t>BTC’ed (@BTC_Ed89)</t>
-  </si>
-  <si>
-    <t>0x5A81b38F189b23fFAd763B90d75723D45d01C2D2</t>
-  </si>
-  <si>
     <t>In consideration</t>
-  </si>
-  <si>
-    <t>Champygolf(@Gregcrypto)</t>
-  </si>
-  <si>
-    <t>Beyaz Yaka(@kriptocuyum)</t>
-  </si>
-  <si>
-    <t>0xA94645d79A5fA83B932f94606D6350115e4C473F</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -737,7 +816,6 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
@@ -757,18 +835,14 @@
       <color rgb="FF1B95E0"/>
       <name val="-apple-system"/>
     </font>
+    <font/>
     <font>
       <sz val="11.0"/>
       <color rgb="FF5B7083"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF0F1419"/>
-      <name val="-apple-system"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -787,12 +861,6 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA4C2F4"/>
-        <bgColor rgb="FFA4C2F4"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -800,7 +868,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -820,26 +888,19 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1112,19 +1173,19 @@
       <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1135,19 +1196,19 @@
       <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1158,19 +1219,19 @@
       <c r="B5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="5"/>
+      <c r="F5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="4"/>
     </row>
     <row r="6">
       <c r="A6" s="4">
@@ -1179,19 +1240,19 @@
       <c r="B6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="F6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1202,19 +1263,19 @@
       <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="F7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1225,19 +1286,19 @@
       <c r="B8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="5"/>
+      <c r="F8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="4"/>
     </row>
     <row r="9">
       <c r="A9" s="4">
@@ -1246,19 +1307,19 @@
       <c r="B9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="5" t="s">
+      <c r="F9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1269,19 +1330,19 @@
       <c r="B10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="5"/>
+      <c r="F10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="4"/>
     </row>
     <row r="11">
       <c r="A11" s="4">
@@ -1290,19 +1351,19 @@
       <c r="B11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="5"/>
+      <c r="F11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="4"/>
     </row>
     <row r="12">
       <c r="A12" s="4">
@@ -1311,19 +1372,19 @@
       <c r="B12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="5" t="s">
+      <c r="F12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1334,19 +1395,19 @@
       <c r="B13" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="5" t="s">
+      <c r="F13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1357,19 +1418,19 @@
       <c r="B14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="5"/>
+      <c r="F14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="4"/>
     </row>
     <row r="15">
       <c r="A15" s="4">
@@ -1378,19 +1439,19 @@
       <c r="B15" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="6" t="s">
+      <c r="F15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1401,19 +1462,19 @@
       <c r="B16" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="5"/>
+      <c r="F16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="4"/>
     </row>
     <row r="17">
       <c r="A17" s="4">
@@ -1422,19 +1483,19 @@
       <c r="B17" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="5"/>
+      <c r="F17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="4"/>
     </row>
     <row r="18">
       <c r="A18" s="4">
@@ -1443,19 +1504,19 @@
       <c r="B18" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="5" t="s">
+      <c r="F18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1466,19 +1527,19 @@
       <c r="B19" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="5" t="s">
+      <c r="F19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1489,19 +1550,19 @@
       <c r="B20" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="8" t="s">
+      <c r="F20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1512,109 +1573,120 @@
       <c r="B21" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="5" t="s">
+      <c r="F21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="9">
+      <c r="A22" s="8">
         <v>21.0</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="9" t="s">
+      <c r="C22" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>10</v>
+      <c r="E22" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="9">
+      <c r="A23" s="3">
         <v>22.0</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="9" t="s">
+      <c r="B23" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="9">
+      <c r="A24" s="8">
         <v>23.0</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="9" t="s">
+      <c r="B24" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>79</v>
       </c>
+      <c r="E24" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25">
-      <c r="A25" s="9">
+      <c r="A25" s="3">
         <v>24.0</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="9" t="s">
+      <c r="B25" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="9">
+      <c r="A26" s="3">
         <v>25.0</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="9" t="s">
+      <c r="B26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="9">
+      <c r="A27" s="3">
         <v>26.0</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F27" s="9" t="s">
+      <c r="B27" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1622,113 +1694,113 @@
       <c r="A28" s="4">
         <v>27.0</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="5"/>
+      <c r="B28" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="4"/>
     </row>
     <row r="29">
       <c r="A29" s="4">
         <v>28.0</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="5"/>
+      <c r="B29" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="4"/>
     </row>
     <row r="30">
       <c r="A30" s="4">
         <v>29.0</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="5"/>
+      <c r="B30" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="4"/>
     </row>
     <row r="31">
-      <c r="A31" s="9">
+      <c r="A31" s="3">
         <v>30.0</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F31" s="9" t="s">
+      <c r="B31" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="9">
+      <c r="A32" s="3">
         <v>31.0</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F32" s="9" t="s">
+      <c r="B32" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="9">
+      <c r="A33" s="3">
         <v>32.0</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F33" s="9" t="s">
+      <c r="B33" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1736,37 +1808,37 @@
       <c r="A34" s="4">
         <v>33.0</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" s="5"/>
+      <c r="B34" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="4"/>
     </row>
     <row r="35">
-      <c r="A35" s="9">
+      <c r="A35" s="3">
         <v>34.0</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F35" s="9" t="s">
+      <c r="B35" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1774,257 +1846,269 @@
       <c r="A36" s="4">
         <v>35.0</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="5"/>
+      <c r="B36" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="4"/>
     </row>
     <row r="37">
-      <c r="A37" s="9">
+      <c r="A37" s="8">
         <v>36.0</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="B37" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="4"/>
     </row>
     <row r="38">
       <c r="A38" s="4">
         <v>37.0</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G38" s="5"/>
+      <c r="B38" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="4"/>
     </row>
     <row r="39">
       <c r="A39" s="4">
         <v>38.0</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G39" s="5"/>
+      <c r="B39" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="4"/>
     </row>
     <row r="40">
-      <c r="A40" s="4">
+      <c r="A40" s="8">
         <v>39.0</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G40" s="5"/>
+      <c r="B40" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="4"/>
     </row>
     <row r="41">
-      <c r="A41" s="9">
+      <c r="A41" s="8">
         <v>40.0</v>
       </c>
-      <c r="B41" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="B41" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="4"/>
     </row>
     <row r="42">
-      <c r="A42" s="9">
+      <c r="A42" s="3">
         <v>41.0</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F42" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="9">
+      <c r="A43" s="3">
         <v>42.0</v>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F43" s="9" t="s">
+      <c r="B43" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="9">
+      <c r="A44" s="3">
         <v>43.0</v>
       </c>
-      <c r="B44" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F44" s="9" t="s">
+      <c r="B44" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="9">
+      <c r="A45" s="3">
         <v>44.0</v>
       </c>
-      <c r="B45" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F45" s="9" t="s">
+      <c r="B45" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="9">
+      <c r="A46" s="8">
         <v>45.0</v>
       </c>
-      <c r="B46" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="B46" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="4"/>
     </row>
     <row r="47">
       <c r="A47" s="4">
         <v>46.0</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G47" s="5"/>
+      <c r="G47" s="4"/>
     </row>
     <row r="48">
-      <c r="A48" s="9">
+      <c r="A48" s="3">
         <v>47.0</v>
       </c>
-      <c r="B48" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F48" s="9" t="s">
+      <c r="B48" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="9">
+      <c r="A49" s="3">
         <v>48.0</v>
       </c>
-      <c r="B49" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F49" s="9" t="s">
+      <c r="B49" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2033,251 +2117,262 @@
         <v>49.0</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G50" s="5"/>
+      <c r="G50" s="4"/>
     </row>
     <row r="51">
       <c r="A51" s="4">
         <v>50.0</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G51" s="5"/>
+        <v>145</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="4"/>
     </row>
     <row r="52">
       <c r="A52" s="4">
         <v>51.0</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" s="5"/>
+      <c r="B52" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="4"/>
     </row>
     <row r="53">
-      <c r="A53" s="9">
+      <c r="A53" s="8">
         <v>52.0</v>
       </c>
-      <c r="B53" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="B53" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="4"/>
     </row>
     <row r="54">
       <c r="A54" s="4">
         <v>53.0</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G54" s="5"/>
+      <c r="B54" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="4"/>
     </row>
     <row r="55">
       <c r="A55" s="4">
         <v>54.0</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G55" s="5"/>
+      <c r="B55" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="4"/>
     </row>
     <row r="56">
       <c r="A56" s="4">
         <v>55.0</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G56" s="5"/>
+        <v>160</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" s="4"/>
     </row>
     <row r="57">
-      <c r="A57" s="9">
+      <c r="A57" s="3">
         <v>56.0</v>
       </c>
-      <c r="B57" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F57" s="9" t="s">
+      <c r="B57" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F57" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="4">
+      <c r="A58" s="8">
         <v>57.0</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G58" s="5"/>
+      <c r="B58" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="4"/>
     </row>
     <row r="59">
-      <c r="A59" s="9">
+      <c r="A59" s="3">
         <v>58.0</v>
       </c>
-      <c r="B59" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G59" s="9" t="s">
-        <v>153</v>
+      <c r="B59" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="9">
+      <c r="A60" s="8">
         <v>59.0</v>
       </c>
-      <c r="B60" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="B60" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="4"/>
     </row>
     <row r="61">
-      <c r="A61" s="9">
+      <c r="A61" s="3">
         <v>60.0</v>
       </c>
-      <c r="B61" s="9" t="s">
-        <v>155</v>
+      <c r="B61" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>10</v>
+        <v>171</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="9">
+      <c r="A62" s="3">
         <v>61.0</v>
       </c>
-      <c r="B62" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="F62" s="9" t="s">
+      <c r="B62" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F62" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2286,636 +2381,672 @@
         <v>63.0</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G63" s="5"/>
+      <c r="G63" s="4"/>
     </row>
     <row r="64">
-      <c r="A64" s="9">
+      <c r="A64" s="8">
         <v>62.0</v>
       </c>
-      <c r="B64" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="B64" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="4"/>
     </row>
     <row r="65">
       <c r="A65" s="4">
         <v>64.0</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G65" s="5"/>
+      <c r="G65" s="4"/>
     </row>
     <row r="66">
       <c r="A66" s="4">
         <v>65.0</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G66" s="5"/>
+      <c r="G66" s="4"/>
     </row>
     <row r="67">
       <c r="A67" s="4">
         <v>66.0</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G67" s="5"/>
+      <c r="G67" s="4"/>
     </row>
     <row r="68">
       <c r="A68" s="4">
         <v>67.0</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G68" s="5"/>
+      <c r="G68" s="4"/>
     </row>
     <row r="69">
       <c r="A69" s="4">
         <v>68.0</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G69" s="5"/>
+      <c r="G69" s="4"/>
     </row>
     <row r="70">
       <c r="A70" s="4">
         <v>69.0</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G70" s="5"/>
+      <c r="G70" s="4"/>
     </row>
     <row r="71">
       <c r="A71" s="4">
         <v>70.0</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G71" s="5"/>
+      <c r="G71" s="4"/>
     </row>
     <row r="72">
       <c r="A72" s="4">
         <v>71.0</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G72" s="5"/>
+      <c r="G72" s="4"/>
     </row>
     <row r="73">
       <c r="A73" s="4">
         <v>72.0</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G73" s="5"/>
+      <c r="G73" s="4"/>
     </row>
     <row r="74">
       <c r="A74" s="4">
         <v>73.0</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G74" s="5"/>
+      <c r="G74" s="4"/>
     </row>
     <row r="75">
-      <c r="A75" s="4">
+      <c r="A75" s="8">
         <v>74.0</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G75" s="5"/>
+      <c r="B75" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="4"/>
     </row>
     <row r="76">
       <c r="A76" s="4">
         <v>75.0</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G76" s="5"/>
+      <c r="G76" s="4"/>
     </row>
     <row r="77">
-      <c r="A77" s="9">
+      <c r="A77" s="3">
         <v>76.0</v>
       </c>
-      <c r="B77" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F77" s="9" t="s">
+      <c r="B77" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F77" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="3">
+      <c r="A78" s="8">
         <v>77.0</v>
       </c>
-      <c r="B78" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>88</v>
+      <c r="B78" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>221</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="G78" s="4"/>
     </row>
     <row r="79">
       <c r="A79" s="4">
         <v>78.0</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G79" s="5"/>
+      <c r="G79" s="4"/>
     </row>
     <row r="80">
       <c r="A80" s="4">
         <v>79.0</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
+        <v>227</v>
+      </c>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
     </row>
     <row r="81">
-      <c r="A81" s="9">
+      <c r="A81" s="8">
         <v>80.0</v>
       </c>
-      <c r="B81" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>88</v>
-      </c>
+      <c r="B81" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
     </row>
     <row r="82">
-      <c r="A82" s="9">
+      <c r="A82" s="8">
         <v>81.0</v>
       </c>
-      <c r="B82" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>88</v>
-      </c>
+      <c r="B82" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="G82" s="4"/>
     </row>
     <row r="83">
       <c r="A83" s="4">
         <v>82.0</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
+        <v>236</v>
+      </c>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
     </row>
     <row r="84">
       <c r="A84" s="4">
         <v>83.0</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
+        <v>239</v>
+      </c>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
     </row>
     <row r="85">
       <c r="A85" s="4">
         <v>84.0</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="G85" s="5"/>
+        <v>242</v>
+      </c>
+      <c r="G85" s="4"/>
     </row>
     <row r="86">
-      <c r="A86" s="9">
+      <c r="A86" s="3">
         <v>85.0</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D86" s="9" t="s">
+      <c r="D86" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="4">
+      <c r="A87" s="8">
         <v>86.0</v>
       </c>
-      <c r="B87" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="F87" s="5"/>
-      <c r="G87" s="4" t="s">
-        <v>222</v>
+      <c r="B87" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="F87" s="4"/>
+      <c r="G87" s="8" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="9">
+      <c r="A88" s="3">
         <v>87.0</v>
       </c>
-      <c r="B88" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>224</v>
+      <c r="B88" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="9">
+      <c r="A89" s="8">
         <v>88.0</v>
       </c>
+      <c r="B89" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="F89" s="4"/>
+      <c r="G89" s="8" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="90">
-      <c r="A90" s="9">
+      <c r="A90" s="8">
         <v>89.0</v>
       </c>
+      <c r="B90" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
     </row>
     <row r="91">
-      <c r="A91" s="9">
+      <c r="A91" s="3">
         <v>90.0</v>
       </c>
+      <c r="C91" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="92">
-      <c r="A92" s="9">
+      <c r="A92" s="3">
         <v>91.0</v>
       </c>
+      <c r="C92" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="93">
-      <c r="A93" s="9">
+      <c r="A93" s="3">
         <v>92.0</v>
       </c>
+      <c r="C93" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="94">
-      <c r="A94" s="9">
+      <c r="A94" s="3">
         <v>93.0</v>
       </c>
+      <c r="C94" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="95">
-      <c r="A95" s="9">
+      <c r="A95" s="3">
         <v>94.0</v>
       </c>
+      <c r="C95" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="96">
-      <c r="A96" s="9">
+      <c r="A96" s="3">
         <v>95.0</v>
       </c>
-      <c r="B96" s="3" t="s">
-        <v>225</v>
+      <c r="B96" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="9">
+      <c r="A97" s="3">
         <v>96.0</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>225</v>
+        <v>258</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="9">
+      <c r="A98" s="3">
         <v>97.0</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>225</v>
+        <v>258</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="9">
+      <c r="A99" s="3">
         <v>98.0</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>225</v>
+        <v>258</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="9">
+      <c r="A100" s="3">
         <v>99.0</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>225</v>
+        <v>258</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="9">
+      <c r="A101" s="3">
         <v>100.0</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>225</v>
+        <v>258</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="11"/>
-      <c r="B102" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="C102" s="12"/>
-      <c r="D102" s="12"/>
+      <c r="F102" s="3" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="103">
-      <c r="B103" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="C103" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="D103" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F103" s="9" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="B104" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C104" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F104" s="9"/>
-    </row>
-    <row r="105">
-      <c r="B105" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="C105" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="D105" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F105" s="9" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="F106" s="9" t="s">
-        <v>229</v>
+      <c r="F103" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$G$106"/>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="A1"/>
     <hyperlink r:id="rId2" ref="G15"/>
